--- a/fastapi-backend/freight_monthly_data 2035.xlsx
+++ b/fastapi-backend/freight_monthly_data 2035.xlsx
@@ -1,31 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24334"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Research RTDA Project Bergamo\Project 1 Demand forecasting\Final datasets and codes 15_3_2024\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE0DD5A2-BFE9-4F19-9CEB-659C2508242A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12315"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
-  <extLst>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Freight</t>
+  </si>
+  <si>
+    <t>Predicted</t>
+  </si>
+  <si>
+    <t>Forecasted</t>
+  </si>
   <si>
     <t>80%_lower</t>
   </si>
@@ -38,32 +39,24 @@
   <si>
     <t>95%_upper</t>
   </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Predicted</t>
-  </si>
-  <si>
-    <t>Forecasted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Freight </t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -71,19 +64,349 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -91,28 +414,314 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -161,7 +770,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -194,26 +803,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -246,23 +838,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -433,2338 +1008,2338 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H433"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A294" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.3333333333333" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" s="1" customFormat="1" spans="1:8">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="2">
         <v>36526</v>
       </c>
       <c r="B2">
-        <v>5.5996999999999998E-2</v>
+        <v>0.055997</v>
       </c>
       <c r="C2">
-        <v>5.6237290550293917E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.0562372905502939</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="2">
         <v>36557</v>
       </c>
       <c r="B3">
-        <v>6.5397999999999998E-2</v>
+        <v>0.065398</v>
       </c>
       <c r="C3">
-        <v>6.5629349095427725E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.0656293490954277</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="2">
         <v>36586</v>
       </c>
       <c r="B4">
-        <v>7.1351999999999999E-2</v>
+        <v>0.071352</v>
       </c>
       <c r="C4">
-        <v>7.1577798878061039E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.071577798878061</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="2">
         <v>36617</v>
       </c>
       <c r="B5">
-        <v>6.4800999999999997E-2</v>
+        <v>0.064801</v>
       </c>
       <c r="C5">
-        <v>6.5033522437084837E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.0650335224370848</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="2">
         <v>36647</v>
       </c>
       <c r="B6">
-        <v>6.7463999999999996E-2</v>
+        <v>0.067464</v>
       </c>
       <c r="C6">
-        <v>6.7694039215010368E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.0676940392150104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="2">
         <v>36678</v>
       </c>
       <c r="B7">
-        <v>6.9110000000000005E-2</v>
+        <v>0.06911</v>
       </c>
       <c r="C7">
-        <v>6.9338900767607611E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.0693389007676076</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="2">
         <v>36708</v>
       </c>
       <c r="B8">
-        <v>7.0192000000000004E-2</v>
+        <v>0.070192</v>
       </c>
       <c r="C8">
-        <v>7.0420499537491216E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.0704204995374912</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="2">
         <v>36739</v>
       </c>
       <c r="B9">
-        <v>5.3540999999999998E-2</v>
+        <v>0.053541</v>
       </c>
       <c r="C9">
-        <v>5.3786622742079709E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.0537866227420797</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="2">
         <v>36770</v>
       </c>
       <c r="B10">
-        <v>6.8028000000000005E-2</v>
+        <v>0.068028</v>
       </c>
       <c r="C10">
-        <v>6.8259808960632981E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.068259808960633</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="2">
         <v>36800</v>
       </c>
       <c r="B11">
-        <v>7.5747999999999996E-2</v>
+        <v>0.075748</v>
       </c>
       <c r="C11">
-        <v>7.5972588166643207E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.0759725881666432</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="2">
         <v>36831</v>
       </c>
       <c r="B12">
-        <v>7.1021000000000001E-2</v>
+        <v>0.071021</v>
       </c>
       <c r="C12">
-        <v>7.1250880825421331E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.0712508808254213</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="2">
         <v>36861</v>
       </c>
       <c r="B13">
-        <v>6.9233000000000003E-2</v>
+        <v>0.069233</v>
       </c>
       <c r="C13">
-        <v>6.9465437834823854E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.0694654378348239</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="2">
         <v>36892</v>
       </c>
       <c r="B14">
-        <v>6.4181000000000002E-2</v>
+        <v>0.064181</v>
       </c>
       <c r="C14">
-        <v>6.2361750700075977E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.062361750700076</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="2">
         <v>36923</v>
       </c>
       <c r="B15">
-        <v>7.1214E-2</v>
+        <v>0.071214</v>
       </c>
       <c r="C15">
-        <v>7.2519157248584543E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.0725191572485845</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" s="2">
         <v>36951</v>
       </c>
       <c r="B16">
-        <v>8.4254999999999997E-2</v>
+        <v>0.084255</v>
       </c>
       <c r="C16">
-        <v>7.8727788541027799E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0787277885410278</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="2">
         <v>36982</v>
       </c>
       <c r="B17">
-        <v>6.9819000000000006E-2</v>
+        <v>0.069819</v>
       </c>
       <c r="C17">
-        <v>7.4242024239481175E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0742420242394812</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="2">
         <v>37012</v>
       </c>
       <c r="B18">
-        <v>7.1159E-2</v>
+        <v>0.071159</v>
       </c>
       <c r="C18">
-        <v>7.2941582566218993E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.072941582566219</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="2">
         <v>37043</v>
       </c>
       <c r="B19">
-        <v>7.1342000000000003E-2</v>
+        <v>0.071342</v>
       </c>
       <c r="C19">
-        <v>7.257012021852198E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.072570120218522</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="2">
         <v>37073</v>
       </c>
       <c r="B20">
-        <v>7.2065000000000004E-2</v>
+        <v>0.072065</v>
       </c>
       <c r="C20">
-        <v>7.2157041160754123E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0721570411607541</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="2">
         <v>37104</v>
       </c>
       <c r="B21">
-        <v>5.4234999999999998E-2</v>
+        <v>0.054235</v>
       </c>
       <c r="C21">
-        <v>5.4919147833790927E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0549191478337909</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="2">
         <v>37135</v>
       </c>
       <c r="B22">
-        <v>6.2366999999999999E-2</v>
+        <v>0.062367</v>
       </c>
       <c r="C22">
-        <v>6.7211961785267574E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0672119617852676</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="2">
         <v>37165</v>
       </c>
       <c r="B23">
-        <v>7.4776999999999996E-2</v>
+        <v>0.074777</v>
       </c>
       <c r="C23">
-        <v>7.244006218604189E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0724400621860419</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="2">
         <v>37196</v>
       </c>
       <c r="B24">
-        <v>6.6646999999999998E-2</v>
+        <v>0.066647</v>
       </c>
       <c r="C24">
-        <v>6.8710057832379712E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0687100578323797</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="2">
         <v>37226</v>
       </c>
       <c r="B25">
-        <v>6.5535999999999997E-2</v>
+        <v>0.065536</v>
       </c>
       <c r="C25">
-        <v>6.5538556499648154E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0655385564996482</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="2">
         <v>37257</v>
       </c>
       <c r="B26">
-        <v>5.7569000000000002E-2</v>
+        <v>0.057569</v>
       </c>
       <c r="C26">
-        <v>5.9815444739399377E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0598154447393994</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" s="2">
         <v>37288</v>
       </c>
       <c r="B27">
-        <v>6.4731999999999998E-2</v>
+        <v>0.064732</v>
       </c>
       <c r="C27">
-        <v>6.6482133882913907E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0664821338829139</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" s="2">
         <v>37316</v>
       </c>
       <c r="B28">
-        <v>7.4402999999999997E-2</v>
+        <v>0.074403</v>
       </c>
       <c r="C28">
-        <v>7.5174186352921293E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0751741863529213</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" s="2">
         <v>37347</v>
       </c>
       <c r="B29">
-        <v>6.5785999999999997E-2</v>
+        <v>0.065786</v>
       </c>
       <c r="C29">
-        <v>6.4534235998134376E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0645342359981344</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" s="2">
         <v>37377</v>
       </c>
       <c r="B30">
-        <v>7.0366999999999999E-2</v>
+        <v>0.070367</v>
       </c>
       <c r="C30">
-        <v>6.8378684974411269E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0683786849744113</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" s="2">
         <v>37408</v>
       </c>
       <c r="B31">
-        <v>6.9083000000000006E-2</v>
+        <v>0.069083</v>
       </c>
       <c r="C31">
-        <v>7.0875380323529191E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0708753803235292</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" s="2">
         <v>37438</v>
       </c>
       <c r="B32">
-        <v>7.5713000000000003E-2</v>
+        <v>0.075713</v>
       </c>
       <c r="C32">
-        <v>7.1348254021635957E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.071348254021636</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" s="2">
         <v>37469</v>
       </c>
       <c r="B33">
-        <v>5.4547999999999999E-2</v>
+        <v>0.054548</v>
       </c>
       <c r="C33">
-        <v>5.7227619318451627E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0572276193184516</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" s="2">
         <v>37500</v>
       </c>
       <c r="B34">
-        <v>7.0669999999999997E-2</v>
+        <v>0.07067</v>
       </c>
       <c r="C34">
-        <v>6.7207091753181139E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0672070917531811</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" s="2">
         <v>37530</v>
       </c>
       <c r="B35">
-        <v>7.6189000000000007E-2</v>
+        <v>0.076189</v>
       </c>
       <c r="C35">
-        <v>7.9287483151563698E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0792874831515637</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" s="2">
         <v>37561</v>
       </c>
       <c r="B36">
-        <v>7.4333999999999997E-2</v>
+        <v>0.074334</v>
       </c>
       <c r="C36">
-        <v>7.1032852578271105E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0710328525782711</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" s="2">
         <v>37591</v>
       </c>
       <c r="B37">
-        <v>7.4187000000000003E-2</v>
+        <v>0.074187</v>
       </c>
       <c r="C37">
-        <v>7.1900175753645337E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0719001757536453</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" s="2">
         <v>37622</v>
       </c>
       <c r="B38">
-        <v>6.3511999999999999E-2</v>
+        <v>0.063512</v>
       </c>
       <c r="C38">
-        <v>6.6192464215684352E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0661924642156844</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" s="2">
         <v>37653</v>
       </c>
       <c r="B39">
-        <v>7.1944999999999995E-2</v>
+        <v>0.071945</v>
       </c>
       <c r="C39">
-        <v>7.1935583921708998E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.071935583921709</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" s="2">
         <v>37681</v>
       </c>
       <c r="B40">
-        <v>8.3033999999999997E-2</v>
+        <v>0.083034</v>
       </c>
       <c r="C40">
-        <v>8.1536892433216338E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0815368924332163</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" s="2">
         <v>37712</v>
       </c>
       <c r="B41">
-        <v>7.1651999999999993E-2</v>
+        <v>0.071652</v>
       </c>
       <c r="C41">
-        <v>7.2791478041879965E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.07279147804188</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" s="2">
         <v>37742</v>
       </c>
       <c r="B42">
-        <v>7.3015999999999998E-2</v>
+        <v>0.073016</v>
       </c>
       <c r="C42">
-        <v>7.483773565125959E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0748377356512596</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" s="2">
         <v>37773</v>
       </c>
       <c r="B43">
-        <v>7.2733999999999993E-2</v>
+        <v>0.072734</v>
       </c>
       <c r="C43">
-        <v>7.384534812439407E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0738453481243941</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" s="2">
         <v>37803</v>
       </c>
       <c r="B44">
-        <v>7.7563999999999994E-2</v>
+        <v>0.077564</v>
       </c>
       <c r="C44">
-        <v>7.6433340545256162E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0764333405452562</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" s="2">
         <v>37834</v>
       </c>
       <c r="B45">
-        <v>5.5041E-2</v>
+        <v>0.055041</v>
       </c>
       <c r="C45">
-        <v>5.872751388543241E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0587275138854324</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" s="2">
         <v>37865</v>
       </c>
       <c r="B46">
-        <v>7.2153999999999996E-2</v>
+        <v>0.072154</v>
       </c>
       <c r="C46">
-        <v>6.9126540199773545E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0691265401997735</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" s="2">
         <v>37895</v>
       </c>
       <c r="B47">
-        <v>8.6128999999999997E-2</v>
+        <v>0.086129</v>
       </c>
       <c r="C47">
-        <v>8.0253485127325858E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0802534851273259</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48" s="2">
         <v>37926</v>
       </c>
       <c r="B48">
-        <v>7.7701999999999993E-2</v>
+        <v>0.077702</v>
       </c>
       <c r="C48">
-        <v>7.9218620350008442E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0792186203500084</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49" s="2">
         <v>37956</v>
       </c>
       <c r="B49">
-        <v>7.8527E-2</v>
+        <v>0.078527</v>
       </c>
       <c r="C49">
-        <v>7.6667012342998817E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0766670123429988</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" s="2">
         <v>37987</v>
       </c>
       <c r="B50">
-        <v>6.2543000000000001E-2</v>
+        <v>0.062543</v>
       </c>
       <c r="C50">
-        <v>6.9477684890556654E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0694776848905567</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51" s="2">
         <v>38018</v>
       </c>
       <c r="B51">
-        <v>6.9683999999999996E-2</v>
+        <v>0.069684</v>
       </c>
       <c r="C51">
-        <v>7.2536483765766713E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0725364837657667</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52" s="2">
         <v>38047</v>
       </c>
       <c r="B52">
-        <v>7.9066999999999998E-2</v>
+        <v>0.079067</v>
       </c>
       <c r="C52">
-        <v>8.1305124780709961E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.08130512478071</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53" s="2">
         <v>38078</v>
       </c>
       <c r="B53">
-        <v>7.1978E-2</v>
+        <v>0.071978</v>
       </c>
       <c r="C53">
-        <v>7.0403572632936839E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0704035726329368</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54" s="2">
         <v>38108</v>
       </c>
       <c r="B54">
-        <v>7.2792999999999997E-2</v>
+        <v>0.072793</v>
       </c>
       <c r="C54">
-        <v>7.4681086220705448E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0746810862207054</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" s="2">
         <v>38139</v>
       </c>
       <c r="B55">
-        <v>7.0673E-2</v>
+        <v>0.070673</v>
       </c>
       <c r="C55">
-        <v>7.3423127408434291E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0734231274084343</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56" s="2">
         <v>38169</v>
       </c>
       <c r="B56">
-        <v>7.9634999999999997E-2</v>
+        <v>0.079635</v>
       </c>
       <c r="C56">
-        <v>7.5219098854856378E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0752190988548564</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57" s="2">
         <v>38200</v>
       </c>
       <c r="B57">
-        <v>5.8798999999999997E-2</v>
+        <v>0.058799</v>
       </c>
       <c r="C57">
-        <v>5.900579541432556E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0590057954143256</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
       <c r="A58" s="2">
         <v>38231</v>
       </c>
       <c r="B58">
-        <v>7.3028999999999997E-2</v>
+        <v>0.073029</v>
       </c>
       <c r="C58">
-        <v>7.3287639088517112E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0732876390885171</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59" s="2">
         <v>38261</v>
       </c>
       <c r="B59">
-        <v>8.4727999999999998E-2</v>
+        <v>0.084728</v>
       </c>
       <c r="C59">
-        <v>8.3806626848622598E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0838066268486226</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
       <c r="A60" s="2">
         <v>38292</v>
       </c>
       <c r="B60">
-        <v>7.8758999999999996E-2</v>
+        <v>0.078759</v>
       </c>
       <c r="C60">
-        <v>7.897945105015465E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0789794510501547</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
       <c r="A61" s="2">
         <v>38322</v>
       </c>
       <c r="B61">
-        <v>8.2041000000000003E-2</v>
+        <v>0.082041</v>
       </c>
       <c r="C61">
-        <v>7.8445259535170148E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0784452595351701</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
       <c r="A62" s="2">
         <v>38353</v>
       </c>
       <c r="B62">
-        <v>6.5712999999999994E-2</v>
+        <v>0.065713</v>
       </c>
       <c r="C62">
-        <v>7.0122913345883622E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0701229133458836</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63" s="2">
         <v>38384</v>
       </c>
       <c r="B63">
-        <v>7.0707000000000006E-2</v>
+        <v>0.070707</v>
       </c>
       <c r="C63">
-        <v>7.4150875689188919E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0741508756891889</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
       <c r="A64" s="2">
         <v>38412</v>
       </c>
       <c r="B64">
-        <v>8.2262000000000002E-2</v>
+        <v>0.082262</v>
       </c>
       <c r="C64">
-        <v>8.1570143400267719E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0815701434002677</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65" s="2">
         <v>38443</v>
       </c>
       <c r="B65">
-        <v>7.8146999999999994E-2</v>
+        <v>0.078147</v>
       </c>
       <c r="C65">
-        <v>7.3140052600162653E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0731400526001627</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
       <c r="A66" s="2">
         <v>38473</v>
       </c>
       <c r="B66">
-        <v>7.8718999999999997E-2</v>
+        <v>0.078719</v>
       </c>
       <c r="C66">
-        <v>7.9295015489623005E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.079295015489623</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
       <c r="A67" s="2">
         <v>38504</v>
       </c>
       <c r="B67">
-        <v>7.9215999999999995E-2</v>
+        <v>0.079216</v>
       </c>
       <c r="C67">
-        <v>7.841292498482165E-2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0784129249848216</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
       <c r="A68" s="2">
         <v>38534</v>
       </c>
       <c r="B68">
-        <v>8.1729999999999997E-2</v>
+        <v>0.08173</v>
       </c>
       <c r="C68">
-        <v>8.384362842093844E-2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0838436284209384</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
       <c r="A69" s="2">
         <v>38565</v>
       </c>
       <c r="B69">
-        <v>6.1192000000000003E-2</v>
+        <v>0.061192</v>
       </c>
       <c r="C69">
-        <v>6.2369614039962162E-2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0623696140399622</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
       <c r="A70" s="2">
         <v>38596</v>
       </c>
       <c r="B70">
-        <v>7.7399999999999997E-2</v>
+        <v>0.0774</v>
       </c>
       <c r="C70">
-        <v>7.6230129700809418E-2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0762301297008094</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
       <c r="A71" s="2">
         <v>38626</v>
       </c>
       <c r="B71">
-        <v>8.3538000000000001E-2</v>
+        <v>0.083538</v>
       </c>
       <c r="C71">
-        <v>8.8306819118109059E-2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0883068191181091</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
       <c r="A72" s="2">
         <v>38657</v>
       </c>
       <c r="B72">
-        <v>7.9146999999999995E-2</v>
+        <v>0.079147</v>
       </c>
       <c r="C72">
-        <v>7.9327097835224097E-2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0793270978352241</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
       <c r="A73" s="2">
         <v>38687</v>
       </c>
       <c r="B73">
-        <v>8.1559999999999994E-2</v>
+        <v>0.08156</v>
       </c>
       <c r="C73">
-        <v>7.989066100361962E-2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0798906610036196</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
       <c r="A74" s="2">
         <v>38718</v>
       </c>
       <c r="B74">
-        <v>6.5796999999999994E-2</v>
+        <v>0.065797</v>
       </c>
       <c r="C74">
-        <v>6.8872036505710069E-2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0688720365057101</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
       <c r="A75" s="2">
         <v>38749</v>
       </c>
       <c r="B75">
-        <v>7.3335999999999998E-2</v>
+        <v>0.073336</v>
       </c>
       <c r="C75">
-        <v>7.3632526613606294E-2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0736325266136063</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
       <c r="A76" s="2">
         <v>38777</v>
       </c>
       <c r="B76">
-        <v>8.9598999999999998E-2</v>
+        <v>0.089599</v>
       </c>
       <c r="C76">
-        <v>8.4291835160667114E-2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0842918351606671</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
       <c r="A77" s="2">
         <v>38808</v>
       </c>
       <c r="B77">
-        <v>7.5434000000000001E-2</v>
+        <v>0.075434</v>
       </c>
       <c r="C77">
-        <v>8.0704092701537E-2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.080704092701537</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
       <c r="A78" s="2">
         <v>38838</v>
       </c>
       <c r="B78">
-        <v>8.3251000000000006E-2</v>
+        <v>0.083251</v>
       </c>
       <c r="C78">
-        <v>7.9125424162202071E-2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0791254241622021</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
       <c r="A79" s="2">
         <v>38869</v>
       </c>
       <c r="B79">
-        <v>8.3151000000000003E-2</v>
+        <v>0.083151</v>
       </c>
       <c r="C79">
-        <v>8.2109220043773606E-2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0821092200437736</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
       <c r="A80" s="2">
         <v>38899</v>
       </c>
       <c r="B80">
-        <v>8.6921999999999999E-2</v>
+        <v>0.086922</v>
       </c>
       <c r="C80">
-        <v>8.6866011403340146E-2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0868660114033401</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
       <c r="A81" s="2">
         <v>38930</v>
       </c>
       <c r="B81">
-        <v>6.7277000000000003E-2</v>
+        <v>0.067277</v>
       </c>
       <c r="C81">
-        <v>6.6867262297301014E-2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.066867262297301</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
       <c r="A82" s="2">
         <v>38961</v>
       </c>
       <c r="B82">
-        <v>8.2807000000000006E-2</v>
+        <v>0.082807</v>
       </c>
       <c r="C82">
-        <v>8.210434111275304E-2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.082104341112753</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
       <c r="A83" s="2">
         <v>38991</v>
       </c>
       <c r="B83">
-        <v>9.1132000000000005E-2</v>
+        <v>0.091132</v>
       </c>
       <c r="C83">
-        <v>9.2658886298373669E-2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0926588862983737</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
       <c r="A84" s="2">
         <v>39022</v>
       </c>
       <c r="B84">
-        <v>8.8959999999999997E-2</v>
+        <v>0.08896</v>
       </c>
       <c r="C84">
-        <v>8.6439331250582216E-2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0864393312505822</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
       <c r="A85" s="2">
         <v>39052</v>
       </c>
       <c r="B85">
-        <v>8.6731000000000003E-2</v>
+        <v>0.086731</v>
       </c>
       <c r="C85">
-        <v>8.9310087394465373E-2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0893100873944654</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
       <c r="A86" s="2">
         <v>39083</v>
       </c>
       <c r="B86">
-        <v>7.4057999999999999E-2</v>
+        <v>0.074058</v>
       </c>
       <c r="C86">
-        <v>7.4434349657351795E-2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0744343496573518</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
       <c r="A87" s="2">
         <v>39114</v>
       </c>
       <c r="B87">
-        <v>8.1077999999999997E-2</v>
+        <v>0.081078</v>
       </c>
       <c r="C87">
-        <v>8.1419622799237146E-2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0814196227992371</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
       <c r="A88" s="2">
         <v>39142</v>
       </c>
       <c r="B88">
-        <v>9.2193999999999998E-2</v>
+        <v>0.092194</v>
       </c>
       <c r="C88">
-        <v>9.2707584500255832E-2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0927075845002558</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
       <c r="A89" s="2">
         <v>39173</v>
       </c>
       <c r="B89">
-        <v>8.3358000000000002E-2</v>
+        <v>0.083358</v>
       </c>
       <c r="C89">
-        <v>8.2864853663621896E-2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0828648536636219</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
       <c r="A90" s="2">
         <v>39203</v>
       </c>
       <c r="B90">
-        <v>8.9746999999999993E-2</v>
+        <v>0.089747</v>
       </c>
       <c r="C90">
-        <v>8.6441258455486281E-2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0864412584554863</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
       <c r="A91" s="2">
         <v>39234</v>
       </c>
       <c r="B91">
-        <v>8.8561000000000001E-2</v>
+        <v>0.088561</v>
       </c>
       <c r="C91">
-        <v>8.8964233716409491E-2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0889642337164095</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
       <c r="A92" s="2">
         <v>39264</v>
       </c>
       <c r="B92">
-        <v>9.3123999999999998E-2</v>
+        <v>0.093124</v>
       </c>
       <c r="C92">
-        <v>9.2851753255258976E-2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.092851753255259</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
       <c r="A93" s="2">
         <v>39295</v>
       </c>
       <c r="B93">
-        <v>6.8895999999999999E-2</v>
+        <v>0.068896</v>
       </c>
       <c r="C93">
-        <v>7.3009580080976577E-2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0730095800809766</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
       <c r="A94" s="2">
         <v>39326</v>
       </c>
       <c r="B94">
-        <v>8.2915000000000003E-2</v>
+        <v>0.082915</v>
       </c>
       <c r="C94">
-        <v>8.4909190756172828E-2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0849091907561728</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
       <c r="A95" s="2">
         <v>39356</v>
       </c>
       <c r="B95">
-        <v>9.1604000000000005E-2</v>
+        <v>0.091604</v>
       </c>
       <c r="C95">
-        <v>9.2688011301199302E-2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0926880113011993</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
       <c r="A96" s="2">
         <v>39387</v>
       </c>
       <c r="B96">
-        <v>9.0174000000000004E-2</v>
+        <v>0.090174</v>
       </c>
       <c r="C96">
-        <v>8.7362542545358648E-2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0873625425453586</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
       <c r="A97" s="2">
         <v>39417</v>
       </c>
       <c r="B97">
-        <v>8.6578000000000002E-2</v>
+        <v>0.086578</v>
       </c>
       <c r="C97">
-        <v>8.9801771271919295E-2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0898017712719193</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
       <c r="A98" s="2">
         <v>39448</v>
       </c>
       <c r="B98">
-        <v>7.6627000000000001E-2</v>
+        <v>0.076627</v>
       </c>
       <c r="C98">
-        <v>7.5340226234227467E-2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0753402262342275</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
       <c r="A99" s="2">
         <v>39479</v>
       </c>
       <c r="B99">
-        <v>8.3280999999999994E-2</v>
+        <v>0.083281</v>
       </c>
       <c r="C99">
-        <v>8.3941562334054351E-2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0839415623340544</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
       <c r="A100" s="2">
         <v>39508</v>
       </c>
       <c r="B100">
-        <v>9.1125999999999999E-2</v>
+        <v>0.091126</v>
       </c>
       <c r="C100">
-        <v>9.5036601312723651E-2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0950366013127237</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
       <c r="A101" s="2">
         <v>39539</v>
       </c>
       <c r="B101">
-        <v>8.2735000000000003E-2</v>
+        <v>0.082735</v>
       </c>
       <c r="C101">
-        <v>8.3045979132071207E-2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0830459791320712</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
       <c r="A102" s="2">
         <v>39569</v>
       </c>
       <c r="B102">
-        <v>8.3123000000000002E-2</v>
+        <v>0.083123</v>
       </c>
       <c r="C102">
-        <v>8.6347362796174151E-2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0863473627961742</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
       <c r="A103" s="2">
         <v>39600</v>
       </c>
       <c r="B103">
-        <v>8.2044000000000006E-2</v>
+        <v>0.082044</v>
       </c>
       <c r="C103">
-        <v>8.3082968034745852E-2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0830829680347459</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
       <c r="A104" s="2">
         <v>39630</v>
       </c>
       <c r="B104">
-        <v>8.4043999999999994E-2</v>
+        <v>0.084044</v>
       </c>
       <c r="C104">
-        <v>8.5987106588854265E-2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0859871065888543</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
       <c r="A105" s="2">
         <v>39661</v>
       </c>
       <c r="B105">
-        <v>6.0138999999999998E-2</v>
+        <v>0.060139</v>
       </c>
       <c r="C105">
-        <v>6.2885368601099376E-2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0628853686010994</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
       <c r="A106" s="2">
         <v>39692</v>
       </c>
       <c r="B106">
-        <v>7.2081000000000006E-2</v>
+        <v>0.072081</v>
       </c>
       <c r="C106">
-        <v>7.4717462549659594E-2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0747174625496596</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
       <c r="A107" s="2">
         <v>39722</v>
       </c>
       <c r="B107">
-        <v>7.5160000000000005E-2</v>
+        <v>0.07516</v>
       </c>
       <c r="C107">
-        <v>8.0917318827731802E-2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0809173188277318</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
       <c r="A108" s="2">
         <v>39753</v>
       </c>
       <c r="B108">
-        <v>6.8335999999999994E-2</v>
+        <v>0.068336</v>
       </c>
       <c r="C108">
-        <v>7.1878359940942202E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0718783599409422</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
       <c r="A109" s="2">
         <v>39783</v>
       </c>
       <c r="B109">
-        <v>6.1239000000000002E-2</v>
+        <v>0.061239</v>
       </c>
       <c r="C109">
-        <v>6.8830658631335556E-2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0688306586313356</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
       <c r="A110" s="2">
         <v>39814</v>
       </c>
       <c r="B110">
-        <v>5.1018000000000001E-2</v>
+        <v>0.051018</v>
       </c>
       <c r="C110">
-        <v>5.1053605999591169E-2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0510536059995912</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
       <c r="A111" s="2">
         <v>39845</v>
       </c>
       <c r="B111">
-        <v>5.5140000000000002E-2</v>
+        <v>0.05514</v>
       </c>
       <c r="C111">
-        <v>5.8619768923028337E-2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0586197689230283</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
       <c r="A112" s="2">
         <v>39873</v>
       </c>
       <c r="B112">
-        <v>6.6961999999999994E-2</v>
+        <v>0.066962</v>
       </c>
       <c r="C112">
-        <v>6.7365394814889928E-2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0673653948148899</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
       <c r="A113" s="2">
         <v>39904</v>
       </c>
       <c r="B113">
-        <v>6.1294000000000001E-2</v>
+        <v>0.061294</v>
       </c>
       <c r="C113">
-        <v>5.8568873713074288E-2</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0585688737130743</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
       <c r="A114" s="2">
         <v>39934</v>
       </c>
       <c r="B114">
-        <v>6.4891000000000004E-2</v>
+        <v>0.064891</v>
       </c>
       <c r="C114">
-        <v>6.4603753644614792E-2</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0646037536446148</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
       <c r="A115" s="2">
         <v>39965</v>
       </c>
       <c r="B115">
-        <v>6.4350000000000004E-2</v>
+        <v>0.06435</v>
       </c>
       <c r="C115">
-        <v>6.4939831097128489E-2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0649398310971285</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
       <c r="A116" s="2">
         <v>39995</v>
       </c>
       <c r="B116">
-        <v>7.3329000000000005E-2</v>
+        <v>0.073329</v>
       </c>
       <c r="C116">
-        <v>6.9731829395597106E-2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0697318293955971</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
       <c r="A117" s="2">
         <v>40026</v>
       </c>
       <c r="B117">
-        <v>5.2060000000000002E-2</v>
+        <v>0.05206</v>
       </c>
       <c r="C117">
-        <v>5.1695954791562797E-2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0516959547915628</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
       <c r="A118" s="2">
         <v>40057</v>
       </c>
       <c r="B118">
-        <v>6.6082000000000002E-2</v>
+        <v>0.066082</v>
       </c>
       <c r="C118">
-        <v>6.6872858995445997E-2</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.066872858995446</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
       <c r="A119" s="2">
         <v>40087</v>
       </c>
       <c r="B119">
-        <v>7.6333999999999999E-2</v>
+        <v>0.076334</v>
       </c>
       <c r="C119">
-        <v>7.4585029191847521E-2</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0745850291918475</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
       <c r="A120" s="2">
         <v>40118</v>
       </c>
       <c r="B120">
-        <v>7.5467999999999993E-2</v>
+        <v>0.075468</v>
       </c>
       <c r="C120">
-        <v>7.191800035741816E-2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0719180003574182</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
       <c r="A121" s="2">
         <v>40148</v>
       </c>
       <c r="B121">
-        <v>7.1542999999999995E-2</v>
+        <v>0.071543</v>
       </c>
       <c r="C121">
-        <v>7.325426291095502E-2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.073254262910955</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
       <c r="A122" s="2">
         <v>40179</v>
       </c>
       <c r="B122">
-        <v>6.3941999999999999E-2</v>
+        <v>0.063942</v>
       </c>
       <c r="C122">
-        <v>6.0548025221662923E-2</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0605480252216629</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
       <c r="A123" s="2">
         <v>40210</v>
       </c>
       <c r="B123">
-        <v>6.8622000000000002E-2</v>
+        <v>0.068622</v>
       </c>
       <c r="C123">
-        <v>6.9970475336582988E-2</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.069970475336583</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
       <c r="A124" s="2">
         <v>40238</v>
       </c>
       <c r="B124">
-        <v>8.0952999999999997E-2</v>
+        <v>0.080953</v>
       </c>
       <c r="C124">
-        <v>8.0469060677484772E-2</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0804690606774848</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
       <c r="A125" s="2">
         <v>40269</v>
       </c>
       <c r="B125">
-        <v>7.1010000000000004E-2</v>
+        <v>0.07101</v>
       </c>
       <c r="C125">
-        <v>7.2913565107256523E-2</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0729135651072565</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
       <c r="A126" s="2">
         <v>40299</v>
       </c>
       <c r="B126">
-        <v>8.1090999999999996E-2</v>
+        <v>0.081091</v>
       </c>
       <c r="C126">
-        <v>7.4917139354360437E-2</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0749171393543604</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
       <c r="A127" s="2">
         <v>40330</v>
       </c>
       <c r="B127">
-        <v>7.6994000000000007E-2</v>
+        <v>0.076994</v>
       </c>
       <c r="C127">
-        <v>7.8902258934120659E-2</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0789022589341207</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
       <c r="A128" s="2">
         <v>40360</v>
       </c>
       <c r="B128">
-        <v>8.3668999999999993E-2</v>
+        <v>0.083669</v>
       </c>
       <c r="C128">
-        <v>8.2330833006838175E-2</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0823308330068382</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
       <c r="A129" s="2">
         <v>40391</v>
       </c>
       <c r="B129">
-        <v>6.4727000000000007E-2</v>
+        <v>0.064727</v>
       </c>
       <c r="C129">
-        <v>6.1823144353543497E-2</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0618231443535435</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
       <c r="A130" s="2">
         <v>40422</v>
       </c>
       <c r="B130">
-        <v>7.7655000000000002E-2</v>
+        <v>0.077655</v>
       </c>
       <c r="C130">
-        <v>7.8093126677335492E-2</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0780931266773355</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
       <c r="A131" s="2">
         <v>40452</v>
       </c>
       <c r="B131">
-        <v>8.7984999999999994E-2</v>
+        <v>0.087985</v>
       </c>
       <c r="C131">
-        <v>8.6298454995210896E-2</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0862984549952109</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
       <c r="A132" s="2">
         <v>40483</v>
       </c>
       <c r="B132">
-        <v>8.1189999999999998E-2</v>
+        <v>0.08119</v>
       </c>
       <c r="C132">
-        <v>8.403678785810749E-2</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0840367878581075</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
       <c r="A133" s="2">
         <v>40513</v>
       </c>
       <c r="B133">
-        <v>8.0516000000000004E-2</v>
+        <v>0.080516</v>
       </c>
       <c r="C133">
-        <v>8.0320385044549289E-2</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0803203850445493</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
       <c r="A134" s="2">
         <v>40544</v>
       </c>
       <c r="B134">
-        <v>7.0543999999999996E-2</v>
+        <v>0.070544</v>
       </c>
       <c r="C134">
-        <v>7.0698730503135326E-2</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0706987305031353</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
       <c r="A135" s="2">
         <v>40575</v>
       </c>
       <c r="B135">
-        <v>6.9458000000000006E-2</v>
+        <v>0.069458</v>
       </c>
       <c r="C135">
-        <v>7.7165118722811288E-2</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0771651187228113</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
       <c r="A136" s="2">
         <v>40603</v>
       </c>
       <c r="B136">
-        <v>8.6192000000000005E-2</v>
+        <v>0.086192</v>
       </c>
       <c r="C136">
-        <v>8.2262312513561697E-2</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0822623125135617</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
       <c r="A137" s="2">
         <v>40634</v>
       </c>
       <c r="B137">
-        <v>8.1076999999999996E-2</v>
+        <v>0.081077</v>
       </c>
       <c r="C137">
-        <v>7.5848403244506313E-2</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0758484032445063</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
       <c r="A138" s="2">
         <v>40664</v>
       </c>
       <c r="B138">
-        <v>8.448E-2</v>
+        <v>0.08448</v>
       </c>
       <c r="C138">
-        <v>8.3710191436204853E-2</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0837101914362049</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
       <c r="A139" s="2">
         <v>40695</v>
       </c>
       <c r="B139">
-        <v>8.1568000000000002E-2</v>
+        <v>0.081568</v>
       </c>
       <c r="C139">
-        <v>8.2742431364912175E-2</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0827424313649122</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
       <c r="A140" s="2">
         <v>40725</v>
       </c>
       <c r="B140">
-        <v>8.5014000000000006E-2</v>
+        <v>0.085014</v>
       </c>
       <c r="C140">
-        <v>8.6939774684581916E-2</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0869397746845819</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
       <c r="A141" s="2">
         <v>40756</v>
       </c>
       <c r="B141">
-        <v>6.4779000000000003E-2</v>
+        <v>0.064779</v>
       </c>
       <c r="C141">
-        <v>6.4344383839356784E-2</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0643443838393568</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
       <c r="A142" s="2">
         <v>40787</v>
       </c>
       <c r="B142">
-        <v>7.6287999999999995E-2</v>
+        <v>0.076288</v>
       </c>
       <c r="C142">
-        <v>7.826125427091106E-2</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0782612542709111</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
       <c r="A143" s="2">
         <v>40817</v>
       </c>
       <c r="B143">
-        <v>8.4212999999999996E-2</v>
+        <v>0.084213</v>
       </c>
       <c r="C143">
-        <v>8.4918742440000708E-2</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0849187424400007</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
       <c r="A144" s="2">
         <v>40848</v>
       </c>
       <c r="B144">
-        <v>7.9762E-2</v>
+        <v>0.079762</v>
       </c>
       <c r="C144">
-        <v>7.9465834196094307E-2</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0794658341960943</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
       <c r="A145" s="2">
         <v>40878</v>
       </c>
       <c r="B145">
-        <v>7.6480999999999993E-2</v>
+        <v>0.076481</v>
       </c>
       <c r="C145">
-        <v>7.7648581321434831E-2</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0776485813214348</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
       <c r="A146" s="2">
         <v>40909</v>
       </c>
       <c r="B146">
-        <v>6.5477999999999995E-2</v>
+        <v>0.065478</v>
       </c>
       <c r="C146">
-        <v>6.5530039003964605E-2</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0655300390039646</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
       <c r="A147" s="2">
         <v>40940</v>
       </c>
       <c r="B147">
-        <v>6.8934999999999996E-2</v>
+        <v>0.068935</v>
       </c>
       <c r="C147">
-        <v>6.9846994700210566E-2</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0698469947002106</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
       <c r="A148" s="2">
         <v>40969</v>
       </c>
       <c r="B148">
-        <v>8.2838999999999996E-2</v>
+        <v>0.082839</v>
       </c>
       <c r="C148">
-        <v>8.1263299710528383E-2</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0812632997105284</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
       <c r="A149" s="2">
         <v>41000</v>
       </c>
       <c r="B149">
-        <v>7.3728000000000002E-2</v>
+        <v>0.073728</v>
       </c>
       <c r="C149">
-        <v>7.3682498611624722E-2</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0736824986116247</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
       <c r="A150" s="2">
         <v>41030</v>
       </c>
       <c r="B150">
-        <v>7.8590999999999994E-2</v>
+        <v>0.078591</v>
       </c>
       <c r="C150">
-        <v>7.7623764755025235E-2</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0776237647550252</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
       <c r="A151" s="2">
         <v>41061</v>
       </c>
       <c r="B151">
-        <v>7.8954999999999997E-2</v>
+        <v>0.078955</v>
       </c>
       <c r="C151">
-        <v>7.6804596661514346E-2</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0768045966615143</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
       <c r="A152" s="2">
         <v>41091</v>
       </c>
       <c r="B152">
-        <v>8.0596000000000001E-2</v>
+        <v>0.080596</v>
       </c>
       <c r="C152">
-        <v>8.3045250859565378E-2</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0830452508595654</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
       <c r="A153" s="2">
         <v>41122</v>
       </c>
       <c r="B153">
-        <v>6.1150000000000003E-2</v>
+        <v>0.06115</v>
       </c>
       <c r="C153">
-        <v>6.0199737523632127E-2</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0601997375236321</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
       <c r="A154" s="2">
         <v>41153</v>
       </c>
       <c r="B154">
-        <v>7.2198999999999999E-2</v>
+        <v>0.072199</v>
       </c>
       <c r="C154">
-        <v>7.4203069003517766E-2</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0742030690035178</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
       <c r="A155" s="2">
         <v>41183</v>
       </c>
       <c r="B155">
-        <v>8.0576999999999996E-2</v>
+        <v>0.080577</v>
       </c>
       <c r="C155">
-        <v>8.1254881430739459E-2</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0812548814307395</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
       <c r="A156" s="2">
         <v>41214</v>
       </c>
       <c r="B156">
-        <v>7.7317999999999998E-2</v>
+        <v>0.077318</v>
       </c>
       <c r="C156">
-        <v>7.6084403906429995E-2</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.07608440390643</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
       <c r="A157" s="2">
         <v>41244</v>
       </c>
       <c r="B157">
-        <v>7.5160000000000005E-2</v>
+        <v>0.07516</v>
       </c>
       <c r="C157">
-        <v>7.4307806021993661E-2</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0743078060219937</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
       <c r="A158" s="2">
         <v>41275</v>
       </c>
       <c r="B158">
-        <v>6.7433000000000007E-2</v>
+        <v>0.067433</v>
       </c>
       <c r="C158">
-        <v>6.3513722415097174E-2</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0635137224150972</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
       <c r="A159" s="2">
         <v>41306</v>
       </c>
       <c r="B159">
-        <v>6.6114999999999993E-2</v>
+        <v>0.066115</v>
       </c>
       <c r="C159">
-        <v>7.062990861066902E-2</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.070629908610669</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
       <c r="A160" s="2">
         <v>41334</v>
       </c>
       <c r="B160">
-        <v>7.9438784999999998E-2</v>
+        <v>0.079438785</v>
       </c>
       <c r="C160">
-        <v>8.0075837874112057E-2</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0800758378741121</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
       <c r="A161" s="2">
         <v>41365</v>
       </c>
       <c r="B161">
-        <v>7.4365000999999986E-2</v>
+        <v>0.074365001</v>
       </c>
       <c r="C161">
-        <v>7.2046127374042201E-2</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0720461273740422</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
       <c r="A162" s="2">
         <v>41395</v>
       </c>
       <c r="B162">
-        <v>7.9174067999999986E-2</v>
+        <v>0.079174068</v>
       </c>
       <c r="C162">
-        <v>7.8779114624804525E-2</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0787791146248045</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
       <c r="A163" s="2">
         <v>41426</v>
       </c>
       <c r="B163">
-        <v>7.8043035999999996E-2</v>
+        <v>0.078043036</v>
       </c>
       <c r="C163">
-        <v>7.8205687360337728E-2</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0782056873603377</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
       <c r="A164" s="2">
         <v>41456</v>
       </c>
       <c r="B164">
-        <v>8.5117200000000004E-2</v>
+        <v>0.0851172</v>
       </c>
       <c r="C164">
-        <v>8.2425701837892704E-2</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0824257018378927</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
       <c r="A165" s="2">
         <v>41487</v>
       </c>
       <c r="B165">
-        <v>6.2233405999999998E-2</v>
+        <v>0.062233406</v>
       </c>
       <c r="C165">
-        <v>6.3981754794615764E-2</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0639817547946158</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
       <c r="A166" s="2">
         <v>41518</v>
       </c>
       <c r="B166">
-        <v>7.4067257599999992E-2</v>
+        <v>0.0740672576</v>
       </c>
       <c r="C166">
-        <v>7.557288621387187E-2</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0755728862138719</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
       <c r="A167" s="2">
         <v>41548</v>
       </c>
       <c r="B167">
-        <v>8.3173395999999997E-2</v>
+        <v>0.083173396</v>
       </c>
       <c r="C167">
-        <v>8.3133644899875764E-2</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0831336448998758</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
       <c r="A168" s="2">
         <v>41579</v>
       </c>
       <c r="B168">
-        <v>7.9047367999999993E-2</v>
+        <v>0.079047368</v>
       </c>
       <c r="C168">
-        <v>7.9064659231740261E-2</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0790646592317403</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
       <c r="A169" s="2">
         <v>41609</v>
       </c>
       <c r="B169">
-        <v>7.8117607999999991E-2</v>
+        <v>0.078117608</v>
       </c>
       <c r="C169">
-        <v>7.7021693255738932E-2</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0770216932557389</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
       <c r="A170" s="2">
         <v>41640</v>
       </c>
       <c r="B170">
-        <v>6.9241776000000005E-2</v>
+        <v>0.069241776</v>
       </c>
       <c r="C170">
-        <v>6.7836756274584006E-2</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.067836756274584</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
       <c r="A171" s="2">
         <v>41671</v>
       </c>
       <c r="B171">
-        <v>6.9661572000000005E-2</v>
+        <v>0.069661572</v>
       </c>
       <c r="C171">
-        <v>7.235074828854611E-2</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0723507482885461</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
       <c r="A172" s="2">
         <v>41699</v>
       </c>
       <c r="B172">
-        <v>8.3883974799999997E-2</v>
+        <v>0.0838839748</v>
       </c>
       <c r="C172">
-        <v>8.3027898399243336E-2</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0830278983992433</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
       <c r="A173" s="2">
         <v>41730</v>
       </c>
       <c r="B173">
-        <v>7.7449637399999993E-2</v>
+        <v>0.0774496374</v>
       </c>
       <c r="C173">
-        <v>7.5961311575596366E-2</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0759613115755964</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
       <c r="A174" s="2">
         <v>41760</v>
       </c>
       <c r="B174">
-        <v>8.3162427900000016E-2</v>
+        <v>0.0831624279</v>
       </c>
       <c r="C174">
-        <v>8.1233827978189246E-2</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0812338279781892</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
       <c r="A175" s="2">
         <v>41791</v>
       </c>
       <c r="B175">
-        <v>8.3731755300000002E-2</v>
+        <v>0.0837317553</v>
       </c>
       <c r="C175">
-        <v>8.1213912519047277E-2</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0812139125190473</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
       <c r="A176" s="2">
         <v>41821</v>
       </c>
       <c r="B176">
-        <v>8.8736535200000022E-2</v>
+        <v>0.0887365352</v>
       </c>
       <c r="C176">
-        <v>8.74140815250352E-2</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0874140815250352</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
       <c r="A177" s="2">
         <v>41852</v>
       </c>
       <c r="B177">
-        <v>6.4445925200000004E-2</v>
+        <v>0.0644459252</v>
       </c>
       <c r="C177">
-        <v>6.7120782058524231E-2</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0671207820585242</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
       <c r="A178" s="2">
         <v>41883</v>
       </c>
       <c r="B178">
-        <v>7.8864887299999978E-2</v>
+        <v>0.0788648873</v>
       </c>
       <c r="C178">
-        <v>7.7457257705941931E-2</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0774572577059419</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
       <c r="A179" s="2">
         <v>41913</v>
       </c>
       <c r="B179">
-        <v>8.7937121999999993E-2</v>
+        <v>0.087937122</v>
       </c>
       <c r="C179">
-        <v>8.7086714675517637E-2</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0870867146755176</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
       <c r="A180" s="2">
         <v>41944</v>
       </c>
       <c r="B180">
-        <v>8.3599582500000019E-2</v>
+        <v>0.0835995825</v>
       </c>
       <c r="C180">
-        <v>8.3195327625979545E-2</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0831953276259795</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
       <c r="A181" s="2">
         <v>41974</v>
       </c>
       <c r="B181">
-        <v>8.0675860400000007E-2</v>
+        <v>0.0806758604</v>
       </c>
       <c r="C181">
-        <v>8.1511736722357578E-2</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0815117367223576</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
       <c r="A182" s="2">
         <v>42005</v>
       </c>
       <c r="B182">
-        <v>6.8348928300000014E-2</v>
+        <v>0.0683489283</v>
       </c>
       <c r="C182">
-        <v>7.054236154217175E-2</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0705423615421717</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
       <c r="A183" s="2">
         <v>42036</v>
       </c>
       <c r="B183">
-        <v>7.2596981500000005E-2</v>
+        <v>0.0725969815</v>
       </c>
       <c r="C183">
-        <v>7.1753674246840399E-2</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0717536742468404</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
       <c r="A184" s="2">
         <v>42064</v>
       </c>
       <c r="B184">
-        <v>8.5308093400000021E-2</v>
+        <v>0.0853080934</v>
       </c>
       <c r="C184">
-        <v>8.5128597767280365E-2</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0851285977672804</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
       <c r="A185" s="2">
         <v>42095</v>
       </c>
       <c r="B185">
-        <v>8.2869781800000014E-2</v>
+        <v>0.0828697818</v>
       </c>
       <c r="C185">
-        <v>7.7609837125747178E-2</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0776098371257472</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
       <c r="A186" s="2">
         <v>42125</v>
       </c>
       <c r="B186">
-        <v>8.9055733500000026E-2</v>
+        <v>0.0890557335</v>
       </c>
       <c r="C186">
-        <v>8.5995661251671462E-2</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0859956612516715</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
       <c r="A187" s="2">
         <v>42156</v>
       </c>
       <c r="B187">
-        <v>8.6019634299999995E-2</v>
+        <v>0.0860196343</v>
       </c>
       <c r="C187">
-        <v>8.6735894966714702E-2</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0867358949667147</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
       <c r="A188" s="2">
         <v>42186</v>
       </c>
       <c r="B188">
-        <v>9.26790844E-2</v>
+        <v>0.0926790844</v>
       </c>
       <c r="C188">
-        <v>9.0773670082614694E-2</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0907736700826147</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
       <c r="A189" s="2">
         <v>42217</v>
       </c>
       <c r="B189">
-        <v>6.875014589999999E-2</v>
+        <v>0.0687501459</v>
       </c>
       <c r="C189">
-        <v>6.9949023445376804E-2</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0699490234453768</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
       <c r="A190" s="2">
         <v>42248</v>
       </c>
       <c r="B190">
-        <v>8.0648379799999989E-2</v>
+        <v>0.0806483798</v>
       </c>
       <c r="C190">
-        <v>8.1492421373383056E-2</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0814924213733831</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
       <c r="A191" s="2">
         <v>42278</v>
       </c>
       <c r="B191">
-        <v>9.0068410000000002E-2</v>
+        <v>0.09006841</v>
       </c>
       <c r="C191">
-        <v>8.9039928194712181E-2</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0890399281947122</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
       <c r="A192" s="2">
         <v>42309</v>
       </c>
       <c r="B192">
-        <v>8.7216289099999983E-2</v>
+        <v>0.0872162891</v>
       </c>
       <c r="C192">
-        <v>8.5442581688567706E-2</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0854425816885677</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
       <c r="A193" s="2">
         <v>42339</v>
       </c>
       <c r="B193">
-        <v>8.22648988E-2</v>
+        <v>0.0822648988</v>
       </c>
       <c r="C193">
-        <v>8.4690365978696655E-2</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0846903659786967</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
       <c r="A194" s="2">
         <v>42370</v>
       </c>
       <c r="B194">
-        <v>7.1263148799999981E-2</v>
+        <v>0.0712631488</v>
       </c>
       <c r="C194">
-        <v>7.288403163812375E-2</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0728840316381237</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
       <c r="A195" s="2">
         <v>42401</v>
       </c>
       <c r="B195">
-        <v>7.5357151499999997E-2</v>
+        <v>0.0753571515</v>
       </c>
       <c r="C195">
-        <v>7.5024264166636018E-2</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.075024264166636</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
       <c r="A196" s="2">
         <v>42430</v>
       </c>
       <c r="B196">
-        <v>8.8121971000000007E-2</v>
+        <v>0.088121971</v>
       </c>
       <c r="C196">
-        <v>8.799194766600503E-2</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.087991947666005</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
       <c r="A197" s="2">
         <v>42461</v>
       </c>
       <c r="B197">
-        <v>8.6445045300000009E-2</v>
+        <v>0.0864450453</v>
       </c>
       <c r="C197">
-        <v>8.0915337068583004E-2</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.080915337068583</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
       <c r="A198" s="2">
         <v>42491</v>
       </c>
       <c r="B198">
-        <v>9.2195951879999974E-2</v>
+        <v>0.09219595188</v>
       </c>
       <c r="C198">
-        <v>8.950018562540045E-2</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0895001856254004</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
       <c r="A199" s="2">
         <v>42522</v>
       </c>
       <c r="B199">
-        <v>8.9214682249999996E-2</v>
+        <v>0.08921468225</v>
       </c>
       <c r="C199">
-        <v>8.985543443804804E-2</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.089855434438048</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
       <c r="A200" s="2">
         <v>42552</v>
       </c>
       <c r="B200">
-        <v>9.3891579800000041E-2</v>
+        <v>0.0938915798</v>
       </c>
       <c r="C200">
-        <v>9.4486366986961542E-2</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0944863669869615</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
       <c r="A201" s="2">
         <v>42583</v>
       </c>
       <c r="B201">
-        <v>7.2172698009999994E-2</v>
+        <v>0.07217269801</v>
       </c>
       <c r="C201">
-        <v>7.1775653119830654E-2</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0717756531198307</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
       <c r="A202" s="2">
         <v>42614</v>
       </c>
       <c r="B202">
-        <v>8.8079410907999992E-2</v>
+        <v>0.088079410908</v>
       </c>
       <c r="C202">
-        <v>8.4688785483564705E-2</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0846887854835647</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
       <c r="A203" s="2">
         <v>42644</v>
       </c>
       <c r="B203">
-        <v>0.10099329830999999</v>
+        <v>0.10099329831</v>
       </c>
       <c r="C203">
-        <v>9.5392990778882691E-2</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0953929907788827</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
       <c r="A204" s="2">
         <v>42675</v>
       </c>
       <c r="B204">
-        <v>9.2780137789999995E-2</v>
+        <v>0.09278013779</v>
       </c>
       <c r="C204">
-        <v>9.4880609712422667E-2</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0948806097124227</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
       <c r="A205" s="2">
         <v>42705</v>
       </c>
       <c r="B205">
-        <v>9.2312095560000001E-2</v>
+        <v>0.09231209556</v>
       </c>
       <c r="C205">
-        <v>8.9969225031114694E-2</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0899692250311147</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
       <c r="A206" s="2">
         <v>42736</v>
       </c>
       <c r="B206">
-        <v>7.9560359979999995E-2</v>
+        <v>0.07956035998</v>
       </c>
       <c r="C206">
-        <v>8.0581304076622298E-2</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0805813040766223</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
       <c r="A207" s="2">
         <v>42767</v>
       </c>
       <c r="B207">
-        <v>7.963553570000001E-2</v>
+        <v>0.0796355357</v>
       </c>
       <c r="C207">
-        <v>8.2380424279022507E-2</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0823804242790225</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
       <c r="A208" s="2">
         <v>42795</v>
       </c>
       <c r="B208">
-        <v>0.10302532424999999</v>
+        <v>0.10302532425</v>
       </c>
       <c r="C208">
-        <v>9.307947902904401E-2</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.093079479029044</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
       <c r="A209" s="2">
         <v>42826</v>
       </c>
       <c r="B209">
-        <v>9.3983409420000039E-2</v>
+        <v>0.09398340942</v>
       </c>
       <c r="C209">
-        <v>9.443077405771079E-2</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0944307740577108</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
       <c r="A210" s="2">
         <v>42856</v>
       </c>
@@ -2772,21 +3347,21 @@
         <v>0.1045281629</v>
       </c>
       <c r="C210">
-        <v>9.8342445932601261E-2</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0983424459326013</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
       <c r="A211" s="2">
         <v>42887</v>
       </c>
       <c r="B211">
-        <v>9.8836361499999983E-2</v>
+        <v>0.0988363615</v>
       </c>
       <c r="C211">
-        <v>0.1003794844682889</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.100379484468289</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
       <c r="A212" s="2">
         <v>42917</v>
       </c>
@@ -2794,32 +3369,32 @@
         <v>0.1042415941</v>
       </c>
       <c r="C212">
-        <v>0.10294838661078019</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.10294838661078</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
       <c r="A213" s="2">
         <v>42948</v>
       </c>
       <c r="B213">
-        <v>8.205592711000001E-2</v>
+        <v>0.08205592711</v>
       </c>
       <c r="C213">
-        <v>8.1203916558268127E-2</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0812039165582681</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
       <c r="A214" s="2">
         <v>42979</v>
       </c>
       <c r="B214">
-        <v>9.5738498199999994E-2</v>
+        <v>0.0957384982</v>
       </c>
       <c r="C214">
-        <v>9.4837833682976769E-2</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0948378336829768</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
       <c r="A215" s="2">
         <v>43009</v>
       </c>
@@ -2827,76 +3402,76 @@
         <v>0.10270970833</v>
       </c>
       <c r="C215">
-        <v>0.1048468333065667</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.104846833306567</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
       <c r="A216" s="2">
         <v>43040</v>
       </c>
       <c r="B216">
-        <v>9.9192235899999967E-2</v>
+        <v>0.0991922359</v>
       </c>
       <c r="C216">
-        <v>9.8100823537070281E-2</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0981008235370703</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
       <c r="A217" s="2">
         <v>43070</v>
       </c>
       <c r="B217">
-        <v>9.6163197499999992E-2</v>
+        <v>0.0961631975</v>
       </c>
       <c r="C217">
-        <v>9.5994046978241293E-2</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0959940469782413</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
       <c r="A218" s="2">
         <v>43101</v>
       </c>
       <c r="B218">
-        <v>8.8123256740000017E-2</v>
+        <v>0.08812325674</v>
       </c>
       <c r="C218">
-        <v>8.4225028660247517E-2</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0842250286602475</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
       <c r="A219" s="2">
         <v>43132</v>
       </c>
       <c r="B219">
-        <v>8.1860371979999985E-2</v>
+        <v>0.08186037198</v>
       </c>
       <c r="C219">
-        <v>8.8914039016955701E-2</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0889140390169557</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
       <c r="A220" s="2">
         <v>43160</v>
       </c>
       <c r="B220">
-        <v>9.9051628870000005E-2</v>
+        <v>0.09905162887</v>
       </c>
       <c r="C220">
-        <v>9.7673753719574707E-2</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0976737537195747</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
       <c r="A221" s="2">
         <v>43191</v>
       </c>
       <c r="B221">
-        <v>9.5127579700000006E-2</v>
+        <v>0.0951275797</v>
       </c>
       <c r="C221">
-        <v>9.1773922584907644E-2</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0917739225849076</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
       <c r="A222" s="2">
         <v>43221</v>
       </c>
@@ -2904,10 +3479,10 @@
         <v>0.10087334525</v>
       </c>
       <c r="C222">
-        <v>9.9480891455214118E-2</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0994808914552141</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
       <c r="A223" s="2">
         <v>43252</v>
       </c>
@@ -2915,10 +3490,10 @@
         <v>0.1015853157</v>
       </c>
       <c r="C223">
-        <v>9.7543321651353931E-2</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0975433216513539</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
       <c r="A224" s="2">
         <v>43282</v>
       </c>
@@ -2926,32 +3501,32 @@
         <v>0.10487908878</v>
       </c>
       <c r="C224">
-        <v>0.1044555234857828</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.104455523485783</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
       <c r="A225" s="2">
         <v>43313</v>
       </c>
       <c r="B225">
-        <v>8.1370927379999985E-2</v>
+        <v>0.08137092738</v>
       </c>
       <c r="C225">
-        <v>8.1845804811373449E-2</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0818458048113734</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
       <c r="A226" s="2">
         <v>43344</v>
       </c>
       <c r="B226">
-        <v>9.3805219839999995E-2</v>
+        <v>0.09380521984</v>
       </c>
       <c r="C226">
-        <v>9.3757831474572298E-2</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0937578314745723</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
       <c r="A227" s="2">
         <v>43374</v>
       </c>
@@ -2962,95 +3537,95 @@
         <v>0.102084497166837</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:3">
       <c r="A228" s="2">
         <v>43405</v>
       </c>
       <c r="B228">
-        <v>9.6905994680000024E-2</v>
+        <v>0.09690599468</v>
       </c>
       <c r="C228">
-        <v>9.7848997206601188E-2</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0978489972066012</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
       <c r="A229" s="2">
         <v>43435</v>
       </c>
       <c r="B229">
-        <v>9.2413362039999988E-2</v>
+        <v>0.09241336204</v>
       </c>
       <c r="C229">
-        <v>9.3646482883329246E-2</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0936464828833292</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
       <c r="A230" s="2">
         <v>43466</v>
       </c>
       <c r="B230">
-        <v>8.0310649799999995E-2</v>
+        <v>0.0803106498</v>
       </c>
       <c r="C230">
-        <v>8.1993153536481928E-2</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0819931535364819</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
       <c r="A231" s="2">
         <v>43497</v>
       </c>
       <c r="B231">
-        <v>7.7378629170000005E-2</v>
+        <v>0.07737862917</v>
       </c>
       <c r="C231">
-        <v>8.1116357776383638E-2</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0811163577763836</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
       <c r="A232" s="2">
         <v>43525</v>
       </c>
       <c r="B232">
-        <v>9.7182556559999994E-2</v>
+        <v>0.09718255656</v>
       </c>
       <c r="C232">
-        <v>9.3157984789716874E-2</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0931579847897169</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
       <c r="A233" s="2">
         <v>43556</v>
       </c>
       <c r="B233">
-        <v>8.9093057619999999E-2</v>
+        <v>0.08909305762</v>
       </c>
       <c r="C233">
-        <v>8.9835038773723633E-2</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0898350387737236</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
       <c r="A234" s="2">
         <v>43586</v>
       </c>
       <c r="B234">
-        <v>9.6686844299999991E-2</v>
+        <v>0.0966868443</v>
       </c>
       <c r="C234">
-        <v>9.4807205211032947E-2</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0948072052110329</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
       <c r="A235" s="2">
         <v>43617</v>
       </c>
       <c r="B235">
-        <v>9.3956132800000036E-2</v>
+        <v>0.0939561328</v>
       </c>
       <c r="C235">
-        <v>9.39553601472847E-2</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0939553601472847</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
       <c r="A236" s="2">
         <v>43647</v>
       </c>
@@ -3058,32 +3633,32 @@
         <v>0.10220641235</v>
       </c>
       <c r="C236">
-        <v>9.8035301726916005E-2</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.098035301726916</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
       <c r="A237" s="2">
         <v>43678</v>
       </c>
       <c r="B237">
-        <v>7.6298115E-2</v>
+        <v>0.076298115</v>
       </c>
       <c r="C237">
-        <v>7.8277604075188134E-2</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0782776040751881</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
       <c r="A238" s="2">
         <v>43709</v>
       </c>
       <c r="B238">
-        <v>9.1736143409999985E-2</v>
+        <v>0.09173614341</v>
       </c>
       <c r="C238">
-        <v>8.9756934929023161E-2</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0897569349290232</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
       <c r="A239" s="2">
         <v>43739</v>
       </c>
@@ -3091,10 +3666,10 @@
         <v>0.10343275684</v>
       </c>
       <c r="C239">
-        <v>0.1007037578575142</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.100703757857514</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
       <c r="A240" s="2">
         <v>43770</v>
       </c>
@@ -3102,516 +3677,516 @@
         <v>0.10008955442</v>
       </c>
       <c r="C240">
-        <v>9.6276407800355651E-2</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0962764078003557</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
       <c r="A241" s="2">
         <v>43800</v>
       </c>
       <c r="B241">
-        <v>9.5045484700000002E-2</v>
+        <v>0.0950454847</v>
       </c>
       <c r="C241">
-        <v>9.3927227026194313E-2</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0939272270261943</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
       <c r="A242" s="2">
         <v>43831</v>
       </c>
       <c r="B242">
-        <v>8.049655E-2</v>
+        <v>0.08049655</v>
       </c>
       <c r="C242">
-        <v>8.0392942766779496E-2</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0803929427667795</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
       <c r="A243" s="2">
         <v>43862</v>
       </c>
       <c r="B243">
-        <v>7.585546E-2</v>
+        <v>0.07585546</v>
       </c>
       <c r="C243">
-        <v>7.509623267758711E-2</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0750962326775871</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
       <c r="A244" s="2">
         <v>43891</v>
       </c>
       <c r="B244">
-        <v>6.4266069999999995E-2</v>
+        <v>0.06426607</v>
       </c>
       <c r="C244">
-        <v>8.3509538465427802E-2</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0835095384654278</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
       <c r="A245" s="2">
         <v>43922</v>
       </c>
       <c r="B245">
-        <v>4.3928429999999997E-2</v>
+        <v>0.04392843</v>
       </c>
       <c r="C245">
-        <v>5.2092138255577521E-2</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0520921382555775</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
       <c r="A246" s="2">
         <v>43952</v>
       </c>
       <c r="B246">
-        <v>5.7910610000000001E-2</v>
+        <v>0.05791061</v>
       </c>
       <c r="C246">
-        <v>5.081275397468929E-2</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0508127539746893</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
       <c r="A247" s="2">
         <v>43983</v>
       </c>
       <c r="B247">
-        <v>6.618773E-2</v>
+        <v>0.06618773</v>
       </c>
       <c r="C247">
-        <v>5.8710967766131182E-2</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0587109677661312</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
       <c r="A248" s="2">
         <v>44013</v>
       </c>
       <c r="B248">
-        <v>7.24524E-2</v>
+        <v>0.0724524</v>
       </c>
       <c r="C248">
-        <v>8.1086322868253125E-2</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0810863228682531</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
       <c r="A249" s="2">
         <v>44044</v>
       </c>
       <c r="B249">
-        <v>5.8561750000000003E-2</v>
+        <v>0.05856175</v>
       </c>
       <c r="C249">
-        <v>5.8420879825024363E-2</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0584208798250244</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
       <c r="A250" s="2">
         <v>44075</v>
       </c>
       <c r="B250">
-        <v>7.024292E-2</v>
+        <v>0.07024292</v>
       </c>
       <c r="C250">
-        <v>7.45212332648887E-2</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0745212332648887</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
       <c r="A251" s="2">
         <v>44105</v>
       </c>
       <c r="B251">
-        <v>7.9212619999999997E-2</v>
+        <v>0.07921262</v>
       </c>
       <c r="C251">
-        <v>7.8528362929637122E-2</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0785283629296371</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
       <c r="A252" s="2">
         <v>44136</v>
       </c>
       <c r="B252">
-        <v>8.9383420000000005E-2</v>
+        <v>0.08938342</v>
       </c>
       <c r="C252">
-        <v>7.3626061230904066E-2</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0736260612309041</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
       <c r="A253" s="2">
         <v>44166</v>
       </c>
       <c r="B253">
-        <v>8.4960979999999992E-2</v>
+        <v>0.08496098</v>
       </c>
       <c r="C253">
-        <v>8.2055429134253899E-2</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0820554291342539</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
       <c r="A254" s="2">
         <v>44197</v>
       </c>
       <c r="B254">
-        <v>7.3448017100000013E-2</v>
+        <v>0.0734480171</v>
       </c>
       <c r="C254">
-        <v>7.3802433564587031E-2</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.073802433564587</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
       <c r="A255" s="2">
         <v>44228</v>
       </c>
       <c r="B255">
-        <v>7.7837998200000008E-2</v>
+        <v>0.0778379982</v>
       </c>
       <c r="C255">
-        <v>7.4461515017487198E-2</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0744615150174872</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
       <c r="A256" s="2">
         <v>44256</v>
       </c>
       <c r="B256">
-        <v>9.6004732199999998E-2</v>
+        <v>0.0960047322</v>
       </c>
       <c r="C256">
-        <v>8.9934505333842465E-2</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0899345053338425</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
       <c r="A257" s="2">
         <v>44287</v>
       </c>
       <c r="B257">
-        <v>9.0976375250000005E-2</v>
+        <v>0.09097637525</v>
       </c>
       <c r="C257">
-        <v>8.8499272770839146E-2</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0884992727708391</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
       <c r="A258" s="2">
         <v>44317</v>
       </c>
       <c r="B258">
-        <v>9.2268372599999982E-2</v>
+        <v>0.0922683726</v>
       </c>
       <c r="C258">
-        <v>9.8996934217327276E-2</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0989969342173273</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
       <c r="A259" s="2">
         <v>44348</v>
       </c>
       <c r="B259">
-        <v>9.1329440200000028E-2</v>
+        <v>0.0913294402</v>
       </c>
       <c r="C259">
-        <v>9.4073577676024825E-2</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0940735776760248</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
       <c r="A260" s="2">
         <v>44378</v>
       </c>
       <c r="B260">
-        <v>9.73697216E-2</v>
+        <v>0.0973697216</v>
       </c>
       <c r="C260">
-        <v>9.6923205483779543E-2</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0969232054837795</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
       <c r="A261" s="2">
         <v>44409</v>
       </c>
       <c r="B261">
-        <v>8.0933619699999987E-2</v>
+        <v>0.0809336197</v>
       </c>
       <c r="C261">
-        <v>7.5372544237765127E-2</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0753725442377651</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
       <c r="A262" s="2">
         <v>44440</v>
       </c>
       <c r="B262">
-        <v>9.4378125199999996E-2</v>
+        <v>0.0943781252</v>
       </c>
       <c r="C262">
-        <v>9.2869690155950396E-2</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0928696901559504</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
       <c r="A263" s="2">
         <v>44470</v>
       </c>
       <c r="B263">
-        <v>9.7937994900000019E-2</v>
+        <v>0.0979379949</v>
       </c>
       <c r="C263">
-        <v>0.1037835331767419</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.103783533176742</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
       <c r="A264" s="2">
         <v>44501</v>
       </c>
       <c r="B264">
-        <v>9.7370017100000011E-2</v>
+        <v>0.0973700171</v>
       </c>
       <c r="C264">
-        <v>9.8073147963203086E-2</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0980731479632031</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
       <c r="A265" s="2">
         <v>44531</v>
       </c>
       <c r="B265">
-        <v>9.8927118400000028E-2</v>
+        <v>0.0989271184</v>
       </c>
       <c r="C265">
-        <v>9.4234758193877249E-2</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0942347581938772</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
       <c r="A266" s="2">
         <v>44562</v>
       </c>
       <c r="B266">
-        <v>8.4119389200000019E-2</v>
+        <v>0.0841193892</v>
       </c>
       <c r="C266">
-        <v>8.6952810298303762E-2</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0869528102983038</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
       <c r="A267" s="2">
         <v>44593</v>
       </c>
       <c r="B267">
-        <v>8.4091213500000012E-2</v>
+        <v>0.0840912135</v>
       </c>
       <c r="C267">
-        <v>8.6447615781981221E-2</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0864476157819812</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
       <c r="A268" s="2">
         <v>44621</v>
       </c>
       <c r="B268">
-        <v>9.8954520680000005E-2</v>
+        <v>0.09895452068</v>
       </c>
       <c r="C268">
-        <v>9.9086898581119562E-2</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0990868985811196</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
       <c r="A269" s="2">
         <v>44652</v>
       </c>
       <c r="B269">
-        <v>9.0415760679999971E-2</v>
+        <v>0.09041576068</v>
       </c>
       <c r="C269">
-        <v>9.359876621980294E-2</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0935987662198029</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
       <c r="A270" s="2">
         <v>44682</v>
       </c>
       <c r="B270">
-        <v>9.8304986399999988E-2</v>
+        <v>0.0983049864</v>
       </c>
       <c r="C270">
-        <v>9.9151795153024677E-2</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0991517951530247</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
       <c r="A271" s="2">
         <v>44713</v>
       </c>
       <c r="B271">
-        <v>9.6158128300000006E-2</v>
+        <v>0.0961581283</v>
       </c>
       <c r="C271">
-        <v>9.7519612451459653E-2</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0975196124514597</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
       <c r="A272" s="2">
         <v>44743</v>
       </c>
       <c r="B272">
-        <v>9.7120009659999992E-2</v>
+        <v>0.09712000966</v>
       </c>
       <c r="C272">
-        <v>0.1000306457558609</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.100030645755861</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
       <c r="A273" s="2">
         <v>44774</v>
       </c>
       <c r="B273">
-        <v>8.1248198280000003E-2</v>
+        <v>0.08124819828</v>
       </c>
       <c r="C273">
-        <v>7.5943368168510439E-2</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0759433681685104</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
       <c r="A274" s="2">
         <v>44805</v>
       </c>
       <c r="B274">
-        <v>9.245051168E-2</v>
+        <v>0.09245051168</v>
       </c>
       <c r="C274">
-        <v>9.353498971104561E-2</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0935349897110456</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
       <c r="A275" s="2">
         <v>44835</v>
       </c>
       <c r="B275">
-        <v>9.6359842000000001E-2</v>
+        <v>0.096359842</v>
       </c>
       <c r="C275">
         <v>0.102567313246006</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:3">
       <c r="A276" s="2">
         <v>44866</v>
       </c>
       <c r="B276">
-        <v>9.5112858299999992E-2</v>
+        <v>0.0951128583</v>
       </c>
       <c r="C276">
-        <v>9.8312693279577479E-2</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0983126932795775</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
       <c r="A277" s="2">
         <v>44896</v>
       </c>
       <c r="B277">
-        <v>9.0047604099999984E-2</v>
+        <v>0.0900476041</v>
       </c>
       <c r="C277">
-        <v>9.5449898164670546E-2</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0954498981646705</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
       <c r="A278" s="2">
         <v>44927</v>
       </c>
       <c r="B278">
-        <v>7.6016374720000002E-2</v>
+        <v>0.07601637472</v>
       </c>
       <c r="C278">
-        <v>8.2138872119604578E-2</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0821388721196046</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3">
       <c r="A279" s="2">
         <v>44958</v>
       </c>
       <c r="B279">
-        <v>7.8732999999999997E-2</v>
+        <v>0.078733</v>
       </c>
       <c r="C279">
-        <v>8.0556024555026626E-2</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0805560245550266</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3">
       <c r="A280" s="2">
         <v>44986</v>
       </c>
       <c r="B280">
-        <v>9.3019000000000004E-2</v>
+        <v>0.093019</v>
       </c>
       <c r="C280">
-        <v>9.4203886295022188E-2</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0942038862950222</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3">
       <c r="A281" s="2">
         <v>45017</v>
       </c>
       <c r="B281">
-        <v>8.3877999999999994E-2</v>
+        <v>0.083878</v>
       </c>
       <c r="C281">
-        <v>8.7252983331575232E-2</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0872529833315752</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3">
       <c r="A282" s="2">
         <v>45047</v>
       </c>
       <c r="B282">
-        <v>9.4425999999999996E-2</v>
+        <v>0.094426</v>
       </c>
       <c r="C282">
-        <v>9.2975434071576268E-2</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0929754340715763</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3">
       <c r="A283" s="2">
         <v>45078</v>
       </c>
       <c r="B283">
-        <v>9.4718999999999998E-2</v>
+        <v>0.094719</v>
       </c>
       <c r="C283">
-        <v>9.380512597659417E-2</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0938051259765942</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3">
       <c r="A284" s="2">
         <v>45108</v>
       </c>
       <c r="B284">
-        <v>9.8513000000000003E-2</v>
+        <v>0.098513</v>
       </c>
       <c r="C284">
-        <v>9.8867182713723398E-2</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0988671827137234</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3">
       <c r="A285" s="2">
         <v>45139</v>
       </c>
       <c r="B285">
-        <v>7.9249E-2</v>
+        <v>0.079249</v>
       </c>
       <c r="C285">
-        <v>7.9188073237081796E-2</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0791880732370818</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3">
       <c r="A286" s="2">
         <v>45170</v>
       </c>
       <c r="B286">
-        <v>9.2939999999999995E-2</v>
+        <v>0.09294</v>
       </c>
       <c r="C286">
-        <v>9.2398802957750686E-2</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0923988029577507</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3">
       <c r="A287" s="2">
         <v>45200</v>
       </c>
@@ -3619,54 +4194,54 @@
         <v>0.101545</v>
       </c>
       <c r="C287">
-        <v>0.1013318487834016</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.101331848783402</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3">
       <c r="A288" s="2">
         <v>45231</v>
       </c>
       <c r="B288">
-        <v>9.7922999999999996E-2</v>
+        <v>0.097923</v>
       </c>
       <c r="C288">
-        <v>0.10057742731611841</v>
-      </c>
-    </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.100577427316118</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3">
       <c r="A289" s="2">
         <v>45261</v>
       </c>
       <c r="B289">
-        <v>9.1803999999999997E-2</v>
+        <v>0.091804</v>
       </c>
       <c r="C289">
-        <v>9.6924538798841761E-2</v>
-      </c>
-    </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.0969245387988418</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3">
       <c r="A290" s="2">
         <v>45292</v>
       </c>
       <c r="B290">
-        <v>9.0607999999999994E-2</v>
+        <v>0.090608</v>
       </c>
       <c r="C290">
-        <v>8.1873571594008154E-2</v>
-      </c>
-    </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.0818735715940082</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3">
       <c r="A291" s="2">
         <v>45323</v>
       </c>
       <c r="B291">
-        <v>9.0685000000000002E-2</v>
+        <v>0.090685</v>
       </c>
       <c r="C291">
-        <v>8.9833043079181094E-2</v>
-      </c>
-    </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.0898330430791811</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3">
       <c r="A292" s="2">
         <v>45352</v>
       </c>
@@ -3677,7 +4252,7 @@
         <v>0.10413370829879</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:3">
       <c r="A293" s="2">
         <v>45383</v>
       </c>
@@ -3685,10 +4260,10 @@
         <v>0.103713</v>
       </c>
       <c r="C293">
-        <v>9.9449012769380979E-2</v>
-      </c>
-    </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.099449012769381</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3">
       <c r="A294" s="2">
         <v>45413</v>
       </c>
@@ -3696,10 +4271,10 @@
         <v>0.112344</v>
       </c>
       <c r="C294">
-        <v>0.1097458510502281</v>
-      </c>
-    </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.109745851050228</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3">
       <c r="A295" s="2">
         <v>45444</v>
       </c>
@@ -3707,10 +4282,10 @@
         <v>0.110929</v>
       </c>
       <c r="C295">
-        <v>0.11066425205421369</v>
-      </c>
-    </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.110664252054214</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3">
       <c r="A296" s="2">
         <v>45474</v>
       </c>
@@ -3718,21 +4293,21 @@
         <v>0.115948</v>
       </c>
       <c r="C296">
-        <v>0.1140464540404182</v>
-      </c>
-    </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.114046454040418</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3">
       <c r="A297" s="2">
         <v>45505</v>
       </c>
       <c r="B297">
-        <v>9.2535999999999993E-2</v>
+        <v>0.092536</v>
       </c>
       <c r="C297">
-        <v>9.5339506228297941E-2</v>
-      </c>
-    </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.0953395062282979</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3">
       <c r="A298" s="2">
         <v>45536</v>
       </c>
@@ -3740,32 +4315,32 @@
         <v>0.104699</v>
       </c>
       <c r="C298">
-        <v>0.10613619059203271</v>
-      </c>
-    </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.106136190592033</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3">
       <c r="A299" s="2">
         <v>45566</v>
       </c>
       <c r="B299">
-        <v>0.11502800000000001</v>
+        <v>0.115028</v>
       </c>
       <c r="C299">
-        <v>0.1131208342211545</v>
-      </c>
-    </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.113120834221155</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3">
       <c r="A300" s="2">
         <v>45597</v>
       </c>
       <c r="B300">
-        <v>0.10356600000000001</v>
+        <v>0.103566</v>
       </c>
       <c r="C300">
-        <v>0.1126799294128929</v>
-      </c>
-    </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.112679929412893</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3">
       <c r="A301" s="2">
         <v>45627</v>
       </c>
@@ -3773,310 +4348,310 @@
         <v>0.101281</v>
       </c>
       <c r="C301">
-        <v>0.1024798049321623</v>
-      </c>
-    </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.102479804932162</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8">
       <c r="A302" s="2">
         <v>45658</v>
       </c>
       <c r="D302">
-        <v>9.092727215001592E-2</v>
+        <v>0.0909272721500159</v>
       </c>
       <c r="E302">
-        <v>8.6633232491299048E-2</v>
+        <v>0.086633232491299</v>
       </c>
       <c r="F302">
-        <v>9.5221311808732792E-2</v>
+        <v>0.0952213118087328</v>
       </c>
       <c r="G302">
-        <v>8.4360105205238914E-2</v>
+        <v>0.0843601052052389</v>
       </c>
       <c r="H302">
-        <v>9.7494439094792926E-2</v>
-      </c>
-    </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.0974944390947929</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8">
       <c r="A303" s="2">
         <v>45689</v>
       </c>
       <c r="D303">
-        <v>9.1703690362126056E-2</v>
+        <v>0.0917036903621261</v>
       </c>
       <c r="E303">
-        <v>8.6416067871596572E-2</v>
+        <v>0.0864160678715966</v>
       </c>
       <c r="F303">
-        <v>9.699131285265554E-2</v>
+        <v>0.0969913128526555</v>
       </c>
       <c r="G303">
-        <v>8.3616969605885758E-2</v>
+        <v>0.0836169696058858</v>
       </c>
       <c r="H303">
-        <v>9.9790411118366354E-2</v>
-      </c>
-    </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.0997904111183664</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8">
       <c r="A304" s="2">
         <v>45717</v>
       </c>
       <c r="D304">
-        <v>0.10622198977012549</v>
+        <v>0.106221989770125</v>
       </c>
       <c r="E304">
-        <v>0.1001939652864617</v>
+        <v>0.100193965286462</v>
       </c>
       <c r="F304">
-        <v>0.1122500142537894</v>
+        <v>0.112250014253789</v>
       </c>
       <c r="G304">
-        <v>9.7002921881205989E-2</v>
+        <v>0.097002921881206</v>
       </c>
       <c r="H304">
-        <v>0.1154410576590451</v>
-      </c>
-    </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.115441057659045</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8">
       <c r="A305" s="2">
         <v>45748</v>
       </c>
       <c r="D305">
-        <v>9.9664214593343237E-2</v>
+        <v>0.0996642145933432</v>
       </c>
       <c r="E305">
-        <v>9.3052848734242841E-2</v>
+        <v>0.0930528487342428</v>
       </c>
       <c r="F305">
-        <v>0.1062755804524436</v>
+        <v>0.106275580452444</v>
       </c>
       <c r="G305">
-        <v>8.9553003058169531E-2</v>
+        <v>0.0895530030581695</v>
       </c>
       <c r="H305">
-        <v>0.1097754261285169</v>
-      </c>
-    </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.109775426128517</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8">
       <c r="A306" s="2">
         <v>45778</v>
       </c>
       <c r="D306">
-        <v>0.1078188707232929</v>
+        <v>0.107818870723293</v>
       </c>
       <c r="E306">
-        <v>0.1007337627989662</v>
+        <v>0.100733762798966</v>
       </c>
       <c r="F306">
-        <v>0.1149039786476195</v>
+        <v>0.11490397864762</v>
       </c>
       <c r="G306">
-        <v>9.698313322227517E-2</v>
+        <v>0.0969831332222752</v>
       </c>
       <c r="H306">
-        <v>0.11865460822431061</v>
-      </c>
-    </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.118654608224311</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8">
       <c r="A307" s="2">
         <v>45809</v>
       </c>
       <c r="D307">
-        <v>0.10719101015964359</v>
+        <v>0.107191010159644</v>
       </c>
       <c r="E307">
-        <v>9.9713780186075282E-2</v>
+        <v>0.0997137801860753</v>
       </c>
       <c r="F307">
-        <v>0.1146682401332119</v>
+        <v>0.114668240133212</v>
       </c>
       <c r="G307">
-        <v>9.5755573735289104E-2</v>
+        <v>0.0957555737352891</v>
       </c>
       <c r="H307">
-        <v>0.1186264465839981</v>
-      </c>
-    </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.118626446583998</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8">
       <c r="A308" s="2">
         <v>45839</v>
       </c>
       <c r="D308">
-        <v>0.11128974638244971</v>
+        <v>0.11128974638245</v>
       </c>
       <c r="E308">
-        <v>0.1034837119653297</v>
+        <v>0.10348371196533</v>
       </c>
       <c r="F308">
-        <v>0.1190957807995698</v>
+        <v>0.11909578079957</v>
       </c>
       <c r="G308">
-        <v>9.9351446956211786E-2</v>
+        <v>0.0993514469562118</v>
       </c>
       <c r="H308">
-        <v>0.1232280458086876</v>
-      </c>
-    </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.123228045808688</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8">
       <c r="A309" s="2">
         <v>45870</v>
       </c>
       <c r="D309">
-        <v>9.0899267484036789E-2</v>
+        <v>0.0908992674840368</v>
       </c>
       <c r="E309">
-        <v>8.2814928164802667E-2</v>
+        <v>0.0828149281648027</v>
       </c>
       <c r="F309">
-        <v>9.898360680327091E-2</v>
+        <v>0.0989836068032709</v>
       </c>
       <c r="G309">
-        <v>7.8535337439781E-2</v>
+        <v>0.078535337439781</v>
       </c>
       <c r="H309">
-        <v>0.10326319752829261</v>
-      </c>
-    </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.103263197528293</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8">
       <c r="A310" s="2">
         <v>45901</v>
       </c>
       <c r="D310">
-        <v>0.10381678085233501</v>
+        <v>0.103816780852335</v>
       </c>
       <c r="E310">
-        <v>9.5495219135157336E-2</v>
+        <v>0.0954952191351573</v>
       </c>
       <c r="F310">
-        <v>0.1121383425695127</v>
+        <v>0.112138342569513</v>
       </c>
       <c r="G310">
-        <v>9.1090050458256369E-2</v>
+        <v>0.0910900504582564</v>
       </c>
       <c r="H310">
-        <v>0.1165435112464136</v>
-      </c>
-    </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.116543511246414</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8">
       <c r="A311" s="2">
         <v>45931</v>
       </c>
       <c r="D311">
-        <v>0.1123968440209126</v>
+        <v>0.112396844020913</v>
       </c>
       <c r="E311">
-        <v>0.1038719771954517</v>
+        <v>0.103871977195452</v>
       </c>
       <c r="F311">
-        <v>0.1209217108463736</v>
+        <v>0.120921710846374</v>
       </c>
       <c r="G311">
-        <v>9.9359185295254171E-2</v>
+        <v>0.0993591852952542</v>
       </c>
       <c r="H311">
-        <v>0.12543450274657111</v>
-      </c>
-    </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.125434502746571</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8">
       <c r="A312" s="2">
         <v>45962</v>
       </c>
       <c r="D312">
-        <v>0.1088453697807835</v>
+        <v>0.108845369780784</v>
       </c>
       <c r="E312">
-        <v>0.1001455167807816</v>
+        <v>0.100145516780782</v>
       </c>
       <c r="F312">
-        <v>0.1175452227807855</v>
+        <v>0.117545222780785</v>
       </c>
       <c r="G312">
-        <v>9.5540092795264375E-2</v>
+        <v>0.0955400927952644</v>
       </c>
       <c r="H312">
-        <v>0.1221506467663027</v>
-      </c>
-    </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.122150646766303</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8">
       <c r="A313" s="2">
         <v>45992</v>
       </c>
       <c r="D313">
-        <v>0.1056842178341484</v>
+        <v>0.105684217834148</v>
       </c>
       <c r="E313">
-        <v>9.6833232618277199E-2</v>
+        <v>0.0968332326182772</v>
       </c>
       <c r="F313">
-        <v>0.1145352030500195</v>
+        <v>0.11453520305002</v>
       </c>
       <c r="G313">
-        <v>9.2147804070390041E-2</v>
+        <v>0.09214780407039</v>
       </c>
       <c r="H313">
-        <v>0.1192206315979067</v>
-      </c>
-    </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.119220631597907</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8">
       <c r="A314" s="2">
         <v>46023</v>
       </c>
       <c r="D314">
-        <v>9.5365854830153141E-2</v>
+        <v>0.0953658548301531</v>
       </c>
       <c r="E314">
-        <v>8.6213289139025498E-2</v>
+        <v>0.0862132891390255</v>
       </c>
       <c r="F314">
-        <v>0.1045184205212808</v>
+        <v>0.104518420521281</v>
       </c>
       <c r="G314">
-        <v>8.1368213531089223E-2</v>
+        <v>0.0813682135310892</v>
       </c>
       <c r="H314">
-        <v>0.1093634961292171</v>
-      </c>
-    </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.109363496129217</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8">
       <c r="A315" s="2">
         <v>46054</v>
       </c>
       <c r="D315">
-        <v>9.6244460079778493E-2</v>
+        <v>0.0962444600797785</v>
       </c>
       <c r="E315">
-        <v>8.6873834823313387E-2</v>
+        <v>0.0868738348233134</v>
       </c>
       <c r="F315">
-        <v>0.1056150853362436</v>
+        <v>0.105615085336244</v>
       </c>
       <c r="G315">
-        <v>8.1913325454315122E-2</v>
+        <v>0.0819133254543151</v>
       </c>
       <c r="H315">
-        <v>0.11057559470524191</v>
-      </c>
-    </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.110575594705242</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8">
       <c r="A316" s="2">
         <v>46082</v>
       </c>
       <c r="D316">
-        <v>0.1107341405933229</v>
+        <v>0.110734140593323</v>
       </c>
       <c r="E316">
-        <v>0.1011757289922862</v>
+        <v>0.101175728992286</v>
       </c>
       <c r="F316">
-        <v>0.12029255219435959</v>
+        <v>0.12029255219436</v>
       </c>
       <c r="G316">
-        <v>9.6115811537261384E-2</v>
+        <v>0.0961158115372614</v>
       </c>
       <c r="H316">
-        <v>0.1253524696493844</v>
-      </c>
-    </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.125352469649384</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8">
       <c r="A317" s="2">
         <v>46113</v>
       </c>
@@ -4084,119 +4659,119 @@
         <v>0.10400757787766</v>
       </c>
       <c r="E317">
-        <v>9.4286907749937754E-2</v>
+        <v>0.0942869077499378</v>
       </c>
       <c r="F317">
-        <v>0.1137282480053823</v>
+        <v>0.113728248005382</v>
       </c>
       <c r="G317">
-        <v>8.9141095819379582E-2</v>
+        <v>0.0891410958193796</v>
       </c>
       <c r="H317">
-        <v>0.1188740599359405</v>
-      </c>
-    </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.11887405993594</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8">
       <c r="A318" s="2">
         <v>46143</v>
       </c>
       <c r="D318">
-        <v>0.1120059928396801</v>
+        <v>0.11200599283968</v>
       </c>
       <c r="E318">
-        <v>0.1021447375359187</v>
+        <v>0.102144737535919</v>
       </c>
       <c r="F318">
-        <v>0.1218672481434414</v>
+        <v>0.121867248143441</v>
       </c>
       <c r="G318">
-        <v>9.6924504308617002E-2</v>
+        <v>0.096924504308617</v>
       </c>
       <c r="H318">
-        <v>0.12708748137074319</v>
-      </c>
-    </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.127087481370743</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8">
       <c r="A319" s="2">
         <v>46174</v>
       </c>
       <c r="D319">
-        <v>0.1112580159501038</v>
+        <v>0.111258015950104</v>
       </c>
       <c r="E319">
-        <v>0.1012746781542771</v>
+        <v>0.101274678154277</v>
       </c>
       <c r="F319">
-        <v>0.12124135374593049</v>
+        <v>0.12124135374593</v>
       </c>
       <c r="G319">
-        <v>9.5989818359472484E-2</v>
+        <v>0.0959898183594725</v>
       </c>
       <c r="H319">
-        <v>0.12652621354073501</v>
-      </c>
-    </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.126526213540735</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8">
       <c r="A320" s="2">
         <v>46204</v>
       </c>
       <c r="D320">
-        <v>0.11529156385522341</v>
+        <v>0.115291563855223</v>
       </c>
       <c r="E320">
-        <v>0.1052020110647538</v>
+        <v>0.105202011064754</v>
       </c>
       <c r="F320">
-        <v>0.12538111664569301</v>
+        <v>0.125381116645693</v>
       </c>
       <c r="G320">
-        <v>9.9860924448191474E-2</v>
+        <v>0.0998609244481915</v>
       </c>
       <c r="H320">
-        <v>0.13072220326225531</v>
-      </c>
-    </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.130722203262255</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8">
       <c r="A321" s="2">
         <v>46235</v>
       </c>
       <c r="D321">
-        <v>9.4810749996286664E-2</v>
+        <v>0.0948107499962867</v>
       </c>
       <c r="E321">
-        <v>8.4628640920445877E-2</v>
+        <v>0.0846286409204459</v>
       </c>
       <c r="F321">
-        <v>0.10499285907212751</v>
+        <v>0.104992859072128</v>
       </c>
       <c r="G321">
-        <v>7.9238557966053599E-2</v>
+        <v>0.0792385579660536</v>
       </c>
       <c r="H321">
-        <v>0.1103829420265197</v>
-      </c>
-    </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.11038294202652</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8">
       <c r="A322" s="2">
         <v>46266</v>
       </c>
       <c r="D322">
-        <v>0.1076335782150679</v>
+        <v>0.107633578215068</v>
       </c>
       <c r="E322">
-        <v>9.7370707101890414E-2</v>
+        <v>0.0973707071018904</v>
       </c>
       <c r="F322">
-        <v>0.11789644932824531</v>
+        <v>0.117896449328245</v>
       </c>
       <c r="G322">
-        <v>9.1937871307436428E-2</v>
+        <v>0.0919378713074364</v>
       </c>
       <c r="H322">
-        <v>0.12332928512269931</v>
-      </c>
-    </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.123329285122699</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8">
       <c r="A323" s="2">
         <v>46296</v>
       </c>
@@ -4204,279 +4779,279 @@
         <v>0.116117806116596</v>
       </c>
       <c r="E323">
-        <v>0.1057843841106783</v>
+        <v>0.105784384110678</v>
       </c>
       <c r="F323">
-        <v>0.1264512281225138</v>
+        <v>0.126451228122514</v>
       </c>
       <c r="G323">
-        <v>0.10031420092959301</v>
+        <v>0.100314200929593</v>
       </c>
       <c r="H323">
         <v>0.131921411303599</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:8">
       <c r="A324" s="2">
         <v>46327</v>
       </c>
       <c r="D324">
-        <v>0.11252665398354771</v>
+        <v>0.112526653983548</v>
       </c>
       <c r="E324">
-        <v>0.1021315413472671</v>
+        <v>0.102131541347267</v>
       </c>
       <c r="F324">
-        <v>0.1229217666198284</v>
+        <v>0.122921766619828</v>
       </c>
       <c r="G324">
-        <v>9.6628701119131188E-2</v>
+        <v>0.0966287011191312</v>
       </c>
       <c r="H324">
-        <v>0.12842460684796431</v>
-      </c>
-    </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.128424606847964</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8">
       <c r="A325" s="2">
         <v>46357</v>
       </c>
       <c r="D325">
-        <v>0.1093505595337487</v>
+        <v>0.109350559533749</v>
       </c>
       <c r="E325">
-        <v>9.8901458958761512E-2</v>
+        <v>0.0989014589587615</v>
       </c>
       <c r="F325">
-        <v>0.1197996601087359</v>
+        <v>0.119799660108736</v>
       </c>
       <c r="G325">
-        <v>9.3370039242231084E-2</v>
+        <v>0.0933700392422311</v>
       </c>
       <c r="H325">
-        <v>0.12533107982526639</v>
-      </c>
-    </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.125331079825266</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8">
       <c r="A326" s="2">
         <v>46388</v>
       </c>
       <c r="D326">
-        <v>9.9026299157711994E-2</v>
+        <v>0.099026299157712</v>
       </c>
       <c r="E326">
-        <v>8.8423727734430024E-2</v>
+        <v>0.08842372773443</v>
       </c>
       <c r="F326">
-        <v>0.10962887058099401</v>
+        <v>0.109628870580994</v>
       </c>
       <c r="G326">
-        <v>8.2811065458305272E-2</v>
+        <v>0.0828110654583053</v>
       </c>
       <c r="H326">
-        <v>0.1152415328571187</v>
-      </c>
-    </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.115241532857119</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8">
       <c r="A327" s="2">
         <v>46419</v>
       </c>
       <c r="D327">
-        <v>9.9858869473690187E-2</v>
+        <v>0.0998588694736902</v>
       </c>
       <c r="E327">
-        <v>8.9149303041707484E-2</v>
+        <v>0.0891493030417075</v>
       </c>
       <c r="F327">
-        <v>0.1105684359056729</v>
+        <v>0.110568435905673</v>
       </c>
       <c r="G327">
-        <v>8.3480001029325027E-2</v>
+        <v>0.083480001029325</v>
       </c>
       <c r="H327">
-        <v>0.11623773791805531</v>
-      </c>
-    </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.116237737918055</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8">
       <c r="A328" s="2">
         <v>46447</v>
       </c>
       <c r="D328">
-        <v>0.1142809025533926</v>
+        <v>0.114280902553393</v>
       </c>
       <c r="E328">
-        <v>0.1034780531616831</v>
+        <v>0.103478053161683</v>
       </c>
       <c r="F328">
-        <v>0.1250837519451021</v>
+        <v>0.125083751945102</v>
       </c>
       <c r="G328">
-        <v>9.7759370133303478E-2</v>
+        <v>0.0977593701333035</v>
       </c>
       <c r="H328">
-        <v>0.13080243497348171</v>
-      </c>
-    </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.130802434973482</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8">
       <c r="A329" s="2">
         <v>46478</v>
       </c>
       <c r="D329">
-        <v>0.1074713510165594</v>
+        <v>0.107471351016559</v>
       </c>
       <c r="E329">
-        <v>9.6587070585515966E-2</v>
+        <v>0.096587070585516</v>
       </c>
       <c r="F329">
-        <v>0.1183556314476029</v>
+        <v>0.118355631447603</v>
       </c>
       <c r="G329">
-        <v>9.0825280568809785E-2</v>
+        <v>0.0908252805688098</v>
       </c>
       <c r="H329">
         <v>0.124117421464309</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:8">
       <c r="A330" s="2">
         <v>46508</v>
       </c>
       <c r="D330">
-        <v>0.1154093232187538</v>
+        <v>0.115409323218754</v>
       </c>
       <c r="E330">
-        <v>0.1044538813078552</v>
+        <v>0.104453881307855</v>
       </c>
       <c r="F330">
-        <v>0.12636476512965239</v>
+        <v>0.126364765129652</v>
       </c>
       <c r="G330">
-        <v>9.8654420679223823E-2</v>
+        <v>0.0986544206792238</v>
       </c>
       <c r="H330">
-        <v>0.13216422575828379</v>
-      </c>
-    </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.132164225758284</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8">
       <c r="A331" s="2">
         <v>46539</v>
       </c>
       <c r="D331">
-        <v>0.1146119652791931</v>
+        <v>0.114611965279193</v>
       </c>
       <c r="E331">
-        <v>0.10359427907525071</v>
+        <v>0.103594279075251</v>
       </c>
       <c r="F331">
-        <v>0.1256296514831354</v>
+        <v>0.125629651483135</v>
       </c>
       <c r="G331">
-        <v>9.7761868308249733E-2</v>
+        <v>0.0977618683082497</v>
       </c>
       <c r="H331">
-        <v>0.1314620622501364</v>
-      </c>
-    </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.131462062250136</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8">
       <c r="A332" s="2">
         <v>46569</v>
       </c>
       <c r="D332">
-        <v>0.1186106308718709</v>
+        <v>0.118610630871871</v>
       </c>
       <c r="E332">
         <v>0.107538457162535</v>
       </c>
       <c r="F332">
-        <v>0.12968280458120671</v>
+        <v>0.129682804581207</v>
       </c>
       <c r="G332">
-        <v>0.1016772024525099</v>
+        <v>0.10167720245251</v>
       </c>
       <c r="H332">
-        <v>0.13554405929123189</v>
-      </c>
-    </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.135544059291232</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8">
       <c r="A333" s="2">
         <v>46600</v>
       </c>
       <c r="D333">
-        <v>9.8088541005663055E-2</v>
+        <v>0.0980885410056631</v>
       </c>
       <c r="E333">
-        <v>8.6968637536066665E-2</v>
+        <v>0.0869686375360667</v>
       </c>
       <c r="F333">
-        <v>0.1092084444752594</v>
+        <v>0.109208444475259</v>
       </c>
       <c r="G333">
-        <v>8.1082116217200337E-2</v>
+        <v>0.0810821162172003</v>
       </c>
       <c r="H333">
-        <v>0.1150949657941258</v>
-      </c>
-    </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.115094965794126</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8">
       <c r="A334" s="2">
         <v>46631</v>
       </c>
       <c r="D334">
-        <v>0.1108765985387539</v>
+        <v>0.110876598538754</v>
       </c>
       <c r="E334">
-        <v>9.9714860444962625E-2</v>
+        <v>0.0997148604449626</v>
       </c>
       <c r="F334">
-        <v>0.12203833663254519</v>
+        <v>0.122038336632545</v>
       </c>
       <c r="G334">
-        <v>9.3806193213781183E-2</v>
+        <v>0.0938061932137812</v>
       </c>
       <c r="H334">
-        <v>0.12794700386372659</v>
-      </c>
-    </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.127947003863727</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8">
       <c r="A335" s="2">
         <v>46661</v>
       </c>
       <c r="D335">
-        <v>0.1193278501631891</v>
+        <v>0.119327850163189</v>
       </c>
       <c r="E335">
-        <v>0.1081294259266473</v>
+        <v>0.108129425926647</v>
       </c>
       <c r="F335">
-        <v>0.13052627439973091</v>
+        <v>0.130526274399731</v>
       </c>
       <c r="G335">
-        <v>0.1022013382245959</v>
+        <v>0.102201338224596</v>
       </c>
       <c r="H335">
-        <v>0.1364543621017823</v>
-      </c>
-    </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.136454362101782</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8">
       <c r="A336" s="2">
         <v>46692</v>
       </c>
       <c r="D336">
-        <v>0.1157165455053349</v>
+        <v>0.115716545505335</v>
       </c>
       <c r="E336">
-        <v>0.1044859359413064</v>
+        <v>0.104485935941306</v>
       </c>
       <c r="F336">
-        <v>0.12694715506936341</v>
+        <v>0.126947155069363</v>
       </c>
       <c r="G336">
-        <v>9.854081035606449E-2</v>
+        <v>0.0985408103560645</v>
       </c>
       <c r="H336">
-        <v>0.13289228065460529</v>
-      </c>
-    </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.132892280654605</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8">
       <c r="A337" s="2">
         <v>46722</v>
       </c>
@@ -4484,239 +5059,239 @@
         <v>0.112518229323488</v>
       </c>
       <c r="E337">
-        <v>0.1012593724120972</v>
+        <v>0.101259372412097</v>
       </c>
       <c r="F337">
-        <v>0.1237770862348789</v>
+        <v>0.123777086234879</v>
       </c>
       <c r="G337">
-        <v>9.5299293584418909E-2</v>
+        <v>0.0952992935844189</v>
       </c>
       <c r="H337">
-        <v>0.1297371650625572</v>
-      </c>
-    </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.129737165062557</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8">
       <c r="A338" s="2">
         <v>46753</v>
       </c>
       <c r="D338">
-        <v>0.1021707880349096</v>
+        <v>0.10217078803491</v>
       </c>
       <c r="E338">
-        <v>9.0805738763944113E-2</v>
+        <v>0.0908057387639441</v>
       </c>
       <c r="F338">
-        <v>0.1135358373058752</v>
+        <v>0.113535837305875</v>
       </c>
       <c r="G338">
-        <v>8.4789445096789373E-2</v>
+        <v>0.0847894450967894</v>
       </c>
       <c r="H338">
-        <v>0.1195521309730299</v>
-      </c>
-    </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.11955213097303</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8">
       <c r="A339" s="2">
         <v>46784</v>
       </c>
       <c r="D339">
-        <v>0.1029706330492393</v>
+        <v>0.102970633049239</v>
       </c>
       <c r="E339">
-        <v>9.1533961071520092E-2</v>
+        <v>0.0915339610715201</v>
       </c>
       <c r="F339">
-        <v>0.11440730502695851</v>
+        <v>0.114407305026959</v>
       </c>
       <c r="G339">
-        <v>8.5479752633668526E-2</v>
+        <v>0.0854797526336685</v>
       </c>
       <c r="H339">
-        <v>0.1204615134648101</v>
-      </c>
-    </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.12046151346481</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8">
       <c r="A340" s="2">
         <v>46813</v>
       </c>
       <c r="D340">
-        <v>0.1173618224568567</v>
+        <v>0.117361822456857</v>
       </c>
       <c r="E340">
-        <v>0.1058624889503845</v>
+        <v>0.105862488950384</v>
       </c>
       <c r="F340">
-        <v>0.12886115596332889</v>
+        <v>0.128861155963329</v>
       </c>
       <c r="G340">
-        <v>9.977510950292072E-2</v>
+        <v>0.0997751095029207</v>
       </c>
       <c r="H340">
-        <v>0.13494853541079271</v>
-      </c>
-    </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.134948535410793</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8">
       <c r="A341" s="2">
         <v>46844</v>
       </c>
       <c r="D341">
-        <v>0.11052267944547479</v>
+        <v>0.110522679445475</v>
       </c>
       <c r="E341">
-        <v>9.8968482735022845E-2</v>
+        <v>0.0989684827350228</v>
       </c>
       <c r="F341">
-        <v>0.1220768761559268</v>
+        <v>0.122076876155927</v>
       </c>
       <c r="G341">
-        <v>9.2852060461716956E-2</v>
+        <v>0.092852060461717</v>
       </c>
       <c r="H341">
-        <v>0.12819329842923269</v>
-      </c>
-    </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.128193298429233</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8">
       <c r="A342" s="2">
         <v>46874</v>
       </c>
       <c r="D342">
-        <v>0.1184406154180543</v>
+        <v>0.118440615418054</v>
       </c>
       <c r="E342">
-        <v>0.10683835187236811</v>
+        <v>0.106838351872368</v>
       </c>
       <c r="F342">
-        <v>0.13004287896374059</v>
+        <v>0.130042878963741</v>
       </c>
       <c r="G342">
-        <v>0.10069648455350851</v>
+        <v>0.100696484553509</v>
       </c>
       <c r="H342">
-        <v>0.13618474628260019</v>
-      </c>
-    </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.1361847462826</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8">
       <c r="A343" s="2">
         <v>46905</v>
       </c>
       <c r="D343">
-        <v>0.11762556471976519</v>
+        <v>0.117625564719765</v>
       </c>
       <c r="E343">
         <v>0.105981164988473</v>
       </c>
       <c r="F343">
-        <v>0.1292699644510574</v>
+        <v>0.129269964451057</v>
       </c>
       <c r="G343">
-        <v>9.9816992120330267E-2</v>
+        <v>0.0998169921203303</v>
       </c>
       <c r="H343">
-        <v>0.13543413731920009</v>
-      </c>
-    </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.1354341373192</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8">
       <c r="A344" s="2">
         <v>46935</v>
       </c>
       <c r="D344">
-        <v>0.1216110887536626</v>
+        <v>0.121611088753663</v>
       </c>
       <c r="E344">
-        <v>0.1099297336956121</v>
+        <v>0.109929733695612</v>
       </c>
       <c r="F344">
-        <v>0.1332924438117131</v>
+        <v>0.133292443811713</v>
       </c>
       <c r="G344">
-        <v>0.1037459978591932</v>
+        <v>0.103745997859193</v>
       </c>
       <c r="H344">
         <v>0.139476179648132</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:8">
       <c r="A345" s="2">
         <v>46966</v>
       </c>
       <c r="D345">
-        <v>0.1010746857378044</v>
+        <v>0.101074685737804</v>
       </c>
       <c r="E345">
-        <v>8.9360905491307679E-2</v>
+        <v>0.0893609054913077</v>
       </c>
       <c r="F345">
-        <v>0.1127884659843011</v>
+        <v>0.112788465984301</v>
       </c>
       <c r="G345">
-        <v>8.31600047969763E-2</v>
+        <v>0.0831600047969763</v>
       </c>
       <c r="H345">
-        <v>0.1189893666786324</v>
-      </c>
-    </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.118989366678632</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8">
       <c r="A346" s="2">
         <v>46997</v>
       </c>
       <c r="D346">
-        <v>0.1138522718945072</v>
+        <v>0.113852271894507</v>
       </c>
       <c r="E346">
-        <v>0.1021100308557461</v>
+        <v>0.102110030855746</v>
       </c>
       <c r="F346">
-        <v>0.12559451293326829</v>
+        <v>0.125594512933268</v>
       </c>
       <c r="G346">
-        <v>9.5894063928072495E-2</v>
+        <v>0.0958940639280725</v>
       </c>
       <c r="H346">
-        <v>0.13181047986094191</v>
-      </c>
-    </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.131810479860942</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8">
       <c r="A347" s="2">
         <v>47027</v>
       </c>
       <c r="D347">
-        <v>0.1222937242035108</v>
+        <v>0.122293724203511</v>
       </c>
       <c r="E347">
-        <v>0.1105264941529208</v>
+        <v>0.110526494152921</v>
       </c>
       <c r="F347">
-        <v>0.13406095425410081</v>
+        <v>0.134060954254101</v>
       </c>
       <c r="G347">
-        <v>0.10429729884145141</v>
+        <v>0.104297298841451</v>
       </c>
       <c r="H347">
-        <v>0.1402901495655702</v>
-      </c>
-    </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.14029014956557</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8">
       <c r="A348" s="2">
         <v>47058</v>
       </c>
       <c r="D348">
-        <v>0.1186763817661394</v>
+        <v>0.118676381766139</v>
       </c>
       <c r="E348">
-        <v>0.1068872049726081</v>
+        <v>0.106887204972608</v>
       </c>
       <c r="F348">
-        <v>0.13046555855967071</v>
+        <v>0.130465558559671</v>
       </c>
       <c r="G348">
-        <v>0.1006463917572103</v>
+        <v>0.10064639175721</v>
       </c>
       <c r="H348">
-        <v>0.13670637177506861</v>
-      </c>
-    </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.136706371775069</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8">
       <c r="A349" s="2">
         <v>47088</v>
       </c>
@@ -4724,359 +5299,359 @@
         <v>0.115471161192309</v>
       </c>
       <c r="E349">
-        <v>0.1036627050021372</v>
+        <v>0.103662705002137</v>
       </c>
       <c r="F349">
-        <v>0.1272796173824807</v>
+        <v>0.127279617382481</v>
       </c>
       <c r="G349">
-        <v>9.741168589064958E-2</v>
+        <v>0.0974116858906496</v>
       </c>
       <c r="H349">
-        <v>0.1335306364939684</v>
-      </c>
-    </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.133530636493968</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8">
       <c r="A350" s="2">
         <v>47119</v>
       </c>
       <c r="D350">
-        <v>0.1051183493007085</v>
+        <v>0.105118349300708</v>
       </c>
       <c r="E350">
-        <v>9.322301440884613E-2</v>
+        <v>0.0932230144088461</v>
       </c>
       <c r="F350">
-        <v>0.1170136841925709</v>
+        <v>0.117013684192571</v>
       </c>
       <c r="G350">
-        <v>8.6926004490778558E-2</v>
+        <v>0.0869260044907786</v>
       </c>
       <c r="H350">
-        <v>0.1233106941106385</v>
-      </c>
-    </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.123310694110638</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8">
       <c r="A351" s="2">
         <v>47150</v>
       </c>
       <c r="D351">
-        <v>0.1059100839847741</v>
+        <v>0.105910083984774</v>
       </c>
       <c r="E351">
-        <v>9.3957337873713825E-2</v>
+        <v>0.0939573378737138</v>
       </c>
       <c r="F351">
-        <v>0.1178628300958343</v>
+        <v>0.117862830095834</v>
       </c>
       <c r="G351">
-        <v>8.7629936292024854E-2</v>
+        <v>0.0876299362920249</v>
       </c>
       <c r="H351">
-        <v>0.1241902316775233</v>
-      </c>
-    </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.124190231677523</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8">
       <c r="A352" s="2">
         <v>47178</v>
       </c>
       <c r="D352">
-        <v>0.12029430159624641</v>
+        <v>0.120294301596246</v>
       </c>
       <c r="E352">
-        <v>0.1082912587542762</v>
+        <v>0.108291258754276</v>
       </c>
       <c r="F352">
-        <v>0.13229734443821661</v>
+        <v>0.132297344438217</v>
       </c>
       <c r="G352">
-        <v>0.1019372316915675</v>
+        <v>0.101937231691568</v>
       </c>
       <c r="H352">
-        <v>0.13865137150092521</v>
-      </c>
-    </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.138651371500925</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8">
       <c r="A353" s="2">
         <v>47209</v>
       </c>
       <c r="D353">
-        <v>0.11344771264875279</v>
+        <v>0.113447712648753</v>
       </c>
       <c r="E353">
-        <v>0.1014005806953881</v>
+        <v>0.101400580695388</v>
       </c>
       <c r="F353">
-        <v>0.1254948446021176</v>
+        <v>0.125494844602118</v>
       </c>
       <c r="G353">
-        <v>9.5023214266931888E-2</v>
+        <v>0.0950232142669319</v>
       </c>
       <c r="H353">
-        <v>0.13187221103057381</v>
-      </c>
-    </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.131872211030574</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8">
       <c r="A354" s="2">
         <v>47239</v>
       </c>
       <c r="D354">
-        <v>0.12135970974196431</v>
+        <v>0.121359709741964</v>
       </c>
       <c r="E354">
         <v>0.109273911010889</v>
       </c>
       <c r="F354">
-        <v>0.13344550847303971</v>
+        <v>0.13344550847304</v>
       </c>
       <c r="G354">
-        <v>0.10287607562674909</v>
+        <v>0.102876075626749</v>
       </c>
       <c r="H354">
-        <v>0.1398433438571795</v>
-      </c>
-    </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.13984334385718</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8">
       <c r="A355" s="2">
         <v>47270</v>
       </c>
       <c r="D355">
-        <v>0.1205374450749964</v>
+        <v>0.120537445074996</v>
       </c>
       <c r="E355">
         <v>0.10841772048152</v>
       </c>
       <c r="F355">
-        <v>0.1326571696684728</v>
+        <v>0.132657169668473</v>
       </c>
       <c r="G355">
-        <v>0.1020019258306626</v>
+        <v>0.102001925830663</v>
       </c>
       <c r="H355">
-        <v>0.13907296431933031</v>
-      </c>
-    </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.13907296431933</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8">
       <c r="A356" s="2">
         <v>47300</v>
       </c>
       <c r="D356">
-        <v>0.1245157952023738</v>
+        <v>0.124515795202374</v>
       </c>
       <c r="E356">
-        <v>0.1123662933104565</v>
+        <v>0.112366293310456</v>
       </c>
       <c r="F356">
-        <v>0.13666529709429101</v>
+        <v>0.136665297094291</v>
       </c>
       <c r="G356">
-        <v>0.1059347355099846</v>
+        <v>0.105934735509985</v>
       </c>
       <c r="H356">
-        <v>0.14309685489476301</v>
-      </c>
-    </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.143096854894763</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8">
       <c r="A357" s="2">
         <v>47331</v>
       </c>
       <c r="D357">
-        <v>0.10397051183161581</v>
+        <v>0.103970511831616</v>
       </c>
       <c r="E357">
-        <v>9.1794865478892151E-2</v>
+        <v>0.0917948654788922</v>
       </c>
       <c r="F357">
-        <v>0.1161461581843395</v>
+        <v>0.11614615818434</v>
       </c>
       <c r="G357">
-        <v>8.5349467636883142E-2</v>
+        <v>0.0853494676368831</v>
       </c>
       <c r="H357">
-        <v>0.12259155602634859</v>
-      </c>
-    </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.122591556026349</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8">
       <c r="A358" s="2">
         <v>47362</v>
       </c>
       <c r="D358">
-        <v>0.1167392959764077</v>
+        <v>0.116739295976408</v>
       </c>
       <c r="E358">
-        <v>0.1045406883825656</v>
+        <v>0.104540688382566</v>
       </c>
       <c r="F358">
-        <v>0.1289379035702499</v>
+        <v>0.12893790357025</v>
       </c>
       <c r="G358">
-        <v>9.8083135593733384E-2</v>
+        <v>0.0980831355937334</v>
       </c>
       <c r="H358">
-        <v>0.13539545635908209</v>
-      </c>
-    </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.135395456359082</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8">
       <c r="A359" s="2">
         <v>47392</v>
       </c>
       <c r="D359">
-        <v>0.12517063228747249</v>
+        <v>0.125170632287472</v>
       </c>
       <c r="E359">
-        <v>0.11295185423058141</v>
+        <v>0.112951854230581</v>
       </c>
       <c r="F359">
-        <v>0.13738941034436361</v>
+        <v>0.137389410344364</v>
       </c>
       <c r="G359">
-        <v>0.10648362384359621</v>
+        <v>0.106483623843596</v>
       </c>
       <c r="H359">
-        <v>0.14385764073134871</v>
-      </c>
-    </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.143857640731349</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8">
       <c r="A360" s="2">
         <v>47423</v>
       </c>
       <c r="D360">
-        <v>0.12154302190364021</v>
+        <v>0.12154302190364</v>
       </c>
       <c r="E360">
         <v>0.109306521278101</v>
       </c>
       <c r="F360">
-        <v>0.13377952252917949</v>
+        <v>0.133779522529179</v>
       </c>
       <c r="G360">
-        <v>0.1028289091299829</v>
+        <v>0.102828909129983</v>
       </c>
       <c r="H360">
-        <v>0.14025713467729761</v>
-      </c>
-    </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.140257134677298</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8">
       <c r="A361" s="2">
         <v>47453</v>
       </c>
       <c r="D361">
-        <v>0.1183259858721073</v>
+        <v>0.118325985872107</v>
       </c>
       <c r="E361">
-        <v>0.1060739107244435</v>
+        <v>0.106073910724443</v>
       </c>
       <c r="F361">
-        <v>0.1305780610197711</v>
+        <v>0.130578061019771</v>
       </c>
       <c r="G361">
-        <v>9.9588053922334635E-2</v>
+        <v>0.0995880539223346</v>
       </c>
       <c r="H361">
-        <v>0.1370639178218799</v>
-      </c>
-    </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.13706391782188</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8">
       <c r="A362" s="2">
         <v>47484</v>
       </c>
       <c r="D362">
-        <v>0.10796096360389321</v>
+        <v>0.107960963603893</v>
       </c>
       <c r="E362">
-        <v>9.5631231510364914E-2</v>
+        <v>0.0956312315103649</v>
       </c>
       <c r="F362">
-        <v>0.1202906956974214</v>
+        <v>0.120290695697421</v>
       </c>
       <c r="G362">
-        <v>8.9104265604329158E-2</v>
+        <v>0.0891042656043292</v>
       </c>
       <c r="H362">
-        <v>0.12681766160345709</v>
-      </c>
-    </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.126817661603457</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8">
       <c r="A363" s="2">
         <v>47515</v>
       </c>
       <c r="D363">
-        <v>0.10874098244767361</v>
+        <v>0.108740982447674</v>
       </c>
       <c r="E363">
-        <v>9.6360484584602973E-2</v>
+        <v>0.096360484584603</v>
       </c>
       <c r="F363">
-        <v>0.12112148031074429</v>
+        <v>0.121121480310744</v>
       </c>
       <c r="G363">
-        <v>8.9806644903493799E-2</v>
+        <v>0.0898066449034938</v>
       </c>
       <c r="H363">
-        <v>0.1276753199918535</v>
-      </c>
-    </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.127675319991853</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8">
       <c r="A364" s="2">
         <v>47543</v>
       </c>
       <c r="D364">
-        <v>0.1231151002133269</v>
+        <v>0.123115100213327</v>
       </c>
       <c r="E364">
-        <v>0.1106900982942142</v>
+        <v>0.110690098294214</v>
       </c>
       <c r="F364">
-        <v>0.13554010213243961</v>
+        <v>0.13554010213244</v>
       </c>
       <c r="G364">
-        <v>0.1041126995889298</v>
+        <v>0.10411269958893</v>
       </c>
       <c r="H364">
-        <v>0.14211750083772401</v>
-      </c>
-    </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.142117500837724</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8">
       <c r="A365" s="2">
         <v>47574</v>
       </c>
       <c r="D365">
-        <v>0.11625910575668209</v>
+        <v>0.116259105756682</v>
       </c>
       <c r="E365">
-        <v>0.1037950702432849</v>
+        <v>0.103795070243285</v>
       </c>
       <c r="F365">
-        <v>0.12872314127007939</v>
+        <v>0.128723141270079</v>
       </c>
       <c r="G365">
-        <v>9.719700840135205E-2</v>
+        <v>0.097197008401352</v>
       </c>
       <c r="H365">
-        <v>0.13532120311201221</v>
-      </c>
-    </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.135321203112012</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8">
       <c r="A366" s="2">
         <v>47604</v>
       </c>
       <c r="D366">
-        <v>0.1241629966137708</v>
+        <v>0.124162996613771</v>
       </c>
       <c r="E366">
-        <v>0.1116647111624807</v>
+        <v>0.111664711162481</v>
       </c>
       <c r="F366">
-        <v>0.13666128206506101</v>
+        <v>0.136661282065061</v>
       </c>
       <c r="G366">
-        <v>0.1050485184986277</v>
+        <v>0.105048518498628</v>
       </c>
       <c r="H366">
-        <v>0.14327747472891389</v>
-      </c>
-    </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.143277474728914</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8">
       <c r="A367" s="2">
         <v>47635</v>
       </c>
@@ -5084,699 +5659,699 @@
         <v>0.123332978099833</v>
       </c>
       <c r="E367">
-        <v>0.1108046291743956</v>
+        <v>0.110804629174396</v>
       </c>
       <c r="F367">
-        <v>0.1358613270252704</v>
+        <v>0.13586132702527</v>
       </c>
       <c r="G367">
-        <v>0.1041725218686602</v>
+        <v>0.10417252186866</v>
       </c>
       <c r="H367">
-        <v>0.14249343433100581</v>
-      </c>
-    </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.142493434331006</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8">
       <c r="A368" s="2">
         <v>47665</v>
       </c>
       <c r="D368">
-        <v>0.12730453413350171</v>
+        <v>0.127304534133502</v>
       </c>
       <c r="E368">
-        <v>0.1147497881363144</v>
+        <v>0.114749788136314</v>
       </c>
       <c r="F368">
-        <v>0.13985928013068899</v>
+        <v>0.139859280130689</v>
       </c>
       <c r="G368">
-        <v>0.1081037070648861</v>
+        <v>0.108103707064886</v>
       </c>
       <c r="H368">
-        <v>0.1465053612021173</v>
-      </c>
-    </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.146505361202117</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8">
       <c r="A369" s="2">
         <v>47696</v>
       </c>
       <c r="D369">
-        <v>0.10675280029076931</v>
+        <v>0.106752800290769</v>
       </c>
       <c r="E369">
-        <v>9.4174870135650846E-2</v>
+        <v>0.0941748701356508</v>
       </c>
       <c r="F369">
-        <v>0.1193307304458877</v>
+        <v>0.119330730445888</v>
       </c>
       <c r="G369">
-        <v>8.751651611236691E-2</v>
+        <v>0.0875165161123669</v>
       </c>
       <c r="H369">
-        <v>0.12598908446917159</v>
-      </c>
-    </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.125989084469172</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8">
       <c r="A370" s="2">
         <v>47727</v>
       </c>
       <c r="D370">
-        <v>0.1195160888883765</v>
+        <v>0.119516088888377</v>
       </c>
       <c r="E370">
-        <v>0.1069177915992956</v>
+        <v>0.106917791599296</v>
       </c>
       <c r="F370">
-        <v>0.13211438617745741</v>
+        <v>0.132114386177457</v>
       </c>
       <c r="G370">
-        <v>0.10024865586656589</v>
+        <v>0.100248655866566</v>
       </c>
       <c r="H370">
-        <v>0.13878352191018711</v>
-      </c>
-    </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.138783521910187</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8">
       <c r="A371" s="2">
         <v>47757</v>
       </c>
       <c r="D371">
-        <v>0.1279423277811122</v>
+        <v>0.127942327781112</v>
       </c>
       <c r="E371">
-        <v>0.1153261344318899</v>
+        <v>0.11532613443189</v>
       </c>
       <c r="F371">
-        <v>0.14055852113033451</v>
+        <v>0.140558521130335</v>
       </c>
       <c r="G371">
-        <v>0.1086475250971785</v>
+        <v>0.108647525097178</v>
       </c>
       <c r="H371">
         <v>0.147237130465046</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:8">
       <c r="A372" s="2">
         <v>47788</v>
       </c>
       <c r="D372">
-        <v>0.1243104692389308</v>
+        <v>0.124310469238931</v>
       </c>
       <c r="E372">
-        <v>0.1116785483323309</v>
+        <v>0.111678548332331</v>
       </c>
       <c r="F372">
-        <v>0.13694239014553081</v>
+        <v>0.136942390145531</v>
       </c>
       <c r="G372">
-        <v>0.10499161333165929</v>
+        <v>0.104991613331659</v>
       </c>
       <c r="H372">
-        <v>0.14362932514620241</v>
-      </c>
-    </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.143629325146202</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8">
       <c r="A373" s="2">
         <v>47818</v>
       </c>
       <c r="D373">
-        <v>0.12108955515717409</v>
+        <v>0.121089555157174</v>
       </c>
       <c r="E373">
-        <v>0.1084438103661801</v>
+        <v>0.10844381036618</v>
       </c>
       <c r="F373">
-        <v>0.1337352999481681</v>
+        <v>0.133735299948168</v>
       </c>
       <c r="G373">
-        <v>0.1017495574431526</v>
+        <v>0.101749557443153</v>
       </c>
       <c r="H373">
-        <v>0.1404295528711956</v>
-      </c>
-    </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.140429552871196</v>
+      </c>
+    </row>
+    <row r="374" spans="1:8">
       <c r="A374" s="2">
         <v>47849</v>
       </c>
       <c r="D374">
-        <v>0.1107214855324427</v>
+        <v>0.110721485532443</v>
       </c>
       <c r="E374">
-        <v>9.8003157002858277E-2</v>
+        <v>0.0980031570028583</v>
       </c>
       <c r="F374">
-        <v>0.1234398140620271</v>
+        <v>0.123439814062027</v>
       </c>
       <c r="G374">
-        <v>9.1270480569610249E-2</v>
+        <v>0.0912704805696102</v>
       </c>
       <c r="H374">
-        <v>0.1301724904952751</v>
-      </c>
-    </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.130172490495275</v>
+      </c>
+    </row>
+    <row r="375" spans="1:8">
       <c r="A375" s="2">
         <v>47880</v>
       </c>
       <c r="D375">
-        <v>0.1114982757925959</v>
+        <v>0.111498275792596</v>
       </c>
       <c r="E375">
-        <v>9.8732746684518979E-2</v>
+        <v>0.098732746684519</v>
       </c>
       <c r="F375">
-        <v>0.12426380490067281</v>
+        <v>0.124263804900673</v>
       </c>
       <c r="G375">
-        <v>9.1975083774336261E-2</v>
+        <v>0.0919750837743363</v>
       </c>
       <c r="H375">
-        <v>0.13102146781085561</v>
-      </c>
-    </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.131021467810856</v>
+      </c>
+    </row>
+    <row r="376" spans="1:8">
       <c r="A376" s="2">
         <v>47908</v>
       </c>
       <c r="D376">
-        <v>0.1258693506595982</v>
+        <v>0.125869350659598</v>
       </c>
       <c r="E376">
-        <v>0.1130624273207253</v>
+        <v>0.113062427320725</v>
       </c>
       <c r="F376">
-        <v>0.1386762739984711</v>
+        <v>0.138676273998471</v>
       </c>
       <c r="G376">
-        <v>0.1062828516284105</v>
+        <v>0.106282851628411</v>
       </c>
       <c r="H376">
-        <v>0.14545584969078579</v>
-      </c>
-    </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.145455849690786</v>
+      </c>
+    </row>
+    <row r="377" spans="1:8">
       <c r="A377" s="2">
         <v>47939</v>
       </c>
       <c r="D377">
-        <v>0.1190101448759923</v>
+        <v>0.119010144875992</v>
       </c>
       <c r="E377">
-        <v>0.1061669036171262</v>
+        <v>0.106166903617126</v>
       </c>
       <c r="F377">
-        <v>0.13185338613485839</v>
+        <v>0.131853386134858</v>
       </c>
       <c r="G377">
-        <v>9.9368102379294693E-2</v>
+        <v>0.0993681023792947</v>
       </c>
       <c r="H377">
-        <v>0.13865218737268989</v>
-      </c>
-    </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.13865218737269</v>
+      </c>
+    </row>
+    <row r="378" spans="1:8">
       <c r="A378" s="2">
         <v>47969</v>
       </c>
       <c r="D378">
-        <v>0.12691092188823139</v>
+        <v>0.126910921888231</v>
       </c>
       <c r="E378">
-        <v>0.11403580448397641</v>
+        <v>0.114035804483976</v>
       </c>
       <c r="F378">
-        <v>0.13978603929248651</v>
+        <v>0.139786039292487</v>
       </c>
       <c r="G378">
-        <v>0.1072201290340702</v>
+        <v>0.10722012903407</v>
       </c>
       <c r="H378">
-        <v>0.1466017147423927</v>
-      </c>
-    </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.146601714742393</v>
+      </c>
+    </row>
+    <row r="379" spans="1:8">
       <c r="A379" s="2">
         <v>48000</v>
       </c>
       <c r="D379">
-        <v>0.12607759420476841</v>
+        <v>0.126077594204768</v>
       </c>
       <c r="E379">
-        <v>0.1131744900341061</v>
+        <v>0.113174490034106</v>
       </c>
       <c r="F379">
-        <v>0.13898069837543081</v>
+        <v>0.138980698375431</v>
       </c>
       <c r="G379">
-        <v>0.1063439992849886</v>
+        <v>0.106343999284989</v>
       </c>
       <c r="H379">
-        <v>0.1458111891245483</v>
-      </c>
-    </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.145811189124548</v>
+      </c>
+    </row>
+    <row r="380" spans="1:8">
       <c r="A380" s="2">
         <v>48030</v>
       </c>
       <c r="D380">
-        <v>0.1300459118730258</v>
+        <v>0.130045911873026</v>
       </c>
       <c r="E380">
-        <v>0.1171182287715789</v>
+        <v>0.117118228771579</v>
       </c>
       <c r="F380">
-        <v>0.14297359497447279</v>
+        <v>0.142973594974473</v>
       </c>
       <c r="G380">
-        <v>0.1102747267224575</v>
+        <v>0.110274726722457</v>
       </c>
       <c r="H380">
-        <v>0.14981709702359419</v>
-      </c>
-    </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.149817097023594</v>
+      </c>
+    </row>
+    <row r="381" spans="1:8">
       <c r="A381" s="2">
         <v>48061</v>
       </c>
       <c r="D381">
-        <v>0.1094908000449331</v>
+        <v>0.109490800044933</v>
       </c>
       <c r="E381">
-        <v>9.6541525573034359E-2</v>
+        <v>0.0965415255730344</v>
       </c>
       <c r="F381">
-        <v>0.1224400745168318</v>
+        <v>0.122440074516832</v>
       </c>
       <c r="G381">
-        <v>8.9686593742816761E-2</v>
+        <v>0.0896865937428168</v>
       </c>
       <c r="H381">
-        <v>0.12929500634704941</v>
-      </c>
-    </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.129295006347049</v>
+      </c>
+    </row>
+    <row r="382" spans="1:8">
       <c r="A382" s="2">
         <v>48092</v>
       </c>
       <c r="D382">
-        <v>0.1222507998946688</v>
+        <v>0.122250799894669</v>
       </c>
       <c r="E382">
-        <v>0.10928255443324569</v>
+        <v>0.109282554433246</v>
       </c>
       <c r="F382">
-        <v>0.1352190453560918</v>
+        <v>0.135219045356092</v>
       </c>
       <c r="G382">
-        <v>0.1024175799678038</v>
+        <v>0.102417579967804</v>
       </c>
       <c r="H382">
-        <v>0.14208401982153371</v>
-      </c>
-    </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.142084019821534</v>
+      </c>
+    </row>
+    <row r="383" spans="1:8">
       <c r="A383" s="2">
         <v>48122</v>
       </c>
       <c r="D383">
-        <v>0.13067364224031269</v>
+        <v>0.130673642240313</v>
       </c>
       <c r="E383">
-        <v>0.1176887250923037</v>
+        <v>0.117688725092304</v>
       </c>
       <c r="F383">
-        <v>0.14365855938832181</v>
+        <v>0.143658559388322</v>
       </c>
       <c r="G383">
-        <v>0.1108149251690889</v>
+        <v>0.110814925169089</v>
       </c>
       <c r="H383">
-        <v>0.15053235931153661</v>
-      </c>
-    </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.150532359311537</v>
+      </c>
+    </row>
+    <row r="384" spans="1:8">
       <c r="A384" s="2">
         <v>48153</v>
       </c>
       <c r="D384">
-        <v>0.1270384585939906</v>
+        <v>0.127038458593991</v>
       </c>
       <c r="E384">
-        <v>0.1140388880794219</v>
+        <v>0.114038888079422</v>
       </c>
       <c r="F384">
-        <v>0.14003802910855939</v>
+        <v>0.140038029108559</v>
       </c>
       <c r="G384">
-        <v>0.1071573311325168</v>
+        <v>0.107157331132517</v>
       </c>
       <c r="H384">
-        <v>0.14691958605546451</v>
-      </c>
-    </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.146919586055465</v>
+      </c>
+    </row>
+    <row r="385" spans="1:8">
       <c r="A385" s="2">
         <v>48183</v>
       </c>
       <c r="D385">
-        <v>0.1238141273875155</v>
+        <v>0.123814127387516</v>
       </c>
       <c r="E385">
-        <v>0.11080167576571311</v>
+        <v>0.110801675765713</v>
       </c>
       <c r="F385">
-        <v>0.1368265790093178</v>
+        <v>0.136826579009318</v>
       </c>
       <c r="G385">
-        <v>0.1039132999725339</v>
+        <v>0.103913299972534</v>
       </c>
       <c r="H385">
-        <v>0.14371495480249699</v>
-      </c>
-    </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.143714954802497</v>
+      </c>
+    </row>
+    <row r="386" spans="1:8">
       <c r="A386" s="2">
         <v>48214</v>
       </c>
       <c r="D386">
-        <v>0.1134426979101552</v>
+        <v>0.113442697910155</v>
       </c>
       <c r="E386">
-        <v>0.10036088687269321</v>
+        <v>0.100360886872693</v>
       </c>
       <c r="F386">
-        <v>0.1265245089476173</v>
+        <v>0.126524508947617</v>
       </c>
       <c r="G386">
-        <v>9.3435794422749741E-2</v>
+        <v>0.0934357944227497</v>
       </c>
       <c r="H386">
-        <v>0.13344960139756071</v>
-      </c>
-    </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.133449601397561</v>
+      </c>
+    </row>
+    <row r="387" spans="1:8">
       <c r="A387" s="2">
         <v>48245</v>
       </c>
       <c r="D387">
-        <v>0.1142161348168014</v>
+        <v>0.114216134816801</v>
       </c>
       <c r="E387">
-        <v>0.10108932864684129</v>
+        <v>0.101089328646841</v>
       </c>
       <c r="F387">
-        <v>0.12734294098676149</v>
+        <v>0.127342940986761</v>
       </c>
       <c r="G387">
-        <v>9.4140417212549843E-2</v>
+        <v>0.0941404172125498</v>
       </c>
       <c r="H387">
-        <v>0.13429185242105299</v>
-      </c>
-    </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.134291852421053</v>
+      </c>
+    </row>
+    <row r="388" spans="1:8">
       <c r="A388" s="2">
         <v>48274</v>
       </c>
       <c r="D388">
-        <v>0.12858397812428141</v>
+        <v>0.128583978124281</v>
       </c>
       <c r="E388">
-        <v>0.1154177018938578</v>
+        <v>0.115417701893858</v>
       </c>
       <c r="F388">
-        <v>0.14175025435470509</v>
+        <v>0.141750254354705</v>
       </c>
       <c r="G388">
-        <v>0.1084478962716796</v>
+        <v>0.10844789627168</v>
       </c>
       <c r="H388">
-        <v>0.1487200599768832</v>
-      </c>
-    </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.148720059976883</v>
+      </c>
+    </row>
+    <row r="389" spans="1:8">
       <c r="A389" s="2">
         <v>48305</v>
       </c>
       <c r="D389">
-        <v>0.1217215231308903</v>
+        <v>0.12172152313089</v>
       </c>
       <c r="E389">
-        <v>0.1085206095784239</v>
+        <v>0.108520609578424</v>
       </c>
       <c r="F389">
-        <v>0.13492243668335671</v>
+        <v>0.134922436683357</v>
       </c>
       <c r="G389">
-        <v>0.1015324680655439</v>
+        <v>0.101532468065544</v>
       </c>
       <c r="H389">
-        <v>0.14191057819623659</v>
-      </c>
-    </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.141910578196237</v>
+      </c>
+    </row>
+    <row r="390" spans="1:8">
       <c r="A390" s="2">
         <v>48335</v>
       </c>
       <c r="D390">
-        <v>0.12961912837637951</v>
+        <v>0.12961912837638</v>
       </c>
       <c r="E390">
-        <v>0.1163878079259421</v>
+        <v>0.116387807925942</v>
       </c>
       <c r="F390">
-        <v>0.14285044882681691</v>
+        <v>0.142850448826817</v>
       </c>
       <c r="G390">
-        <v>0.1093835699735889</v>
+        <v>0.109383569973589</v>
       </c>
       <c r="H390">
-        <v>0.1498546867791701</v>
-      </c>
-    </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.14985468677917</v>
+      </c>
+    </row>
+    <row r="391" spans="1:8">
       <c r="A391" s="2">
         <v>48366</v>
       </c>
       <c r="D391">
-        <v>0.12878259683431609</v>
+        <v>0.128782596834316</v>
       </c>
       <c r="E391">
-        <v>0.11552457515021559</v>
+        <v>0.115524575150216</v>
       </c>
       <c r="F391">
-        <v>0.14204061851841659</v>
+        <v>0.142040618518417</v>
       </c>
       <c r="G391">
-        <v>0.10850620241857881</v>
+        <v>0.108506202418579</v>
       </c>
       <c r="H391">
-        <v>0.14905899125005351</v>
-      </c>
-    </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.149058991250054</v>
+      </c>
+    </row>
+    <row r="392" spans="1:8">
       <c r="A392" s="2">
         <v>48396</v>
       </c>
       <c r="D392">
-        <v>0.1327477698832156</v>
+        <v>0.132747769883216</v>
       </c>
       <c r="E392">
-        <v>0.1194662948632445</v>
+        <v>0.119466294863245</v>
       </c>
       <c r="F392">
-        <v>0.14602924490318669</v>
+        <v>0.146029244903187</v>
       </c>
       <c r="G392">
-        <v>0.1124355066855582</v>
+        <v>0.112435506685558</v>
       </c>
       <c r="H392">
-        <v>0.15306003308087299</v>
-      </c>
-    </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.153060033080873</v>
+      </c>
+    </row>
+    <row r="393" spans="1:8">
       <c r="A393" s="2">
         <v>48427</v>
       </c>
       <c r="D393">
-        <v>0.1121894823647014</v>
+        <v>0.112189482364701</v>
       </c>
       <c r="E393">
-        <v>9.8887402144227074E-2</v>
+        <v>0.0988874021442271</v>
       </c>
       <c r="F393">
-        <v>0.1254915625851758</v>
+        <v>0.125491562585176</v>
       </c>
       <c r="G393">
-        <v>9.1845706232280944E-2</v>
+        <v>0.0918457062322809</v>
       </c>
       <c r="H393">
-        <v>0.13253325849712189</v>
-      </c>
-    </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.132533258497122</v>
+      </c>
+    </row>
+    <row r="394" spans="1:8">
       <c r="A394" s="2">
         <v>48458</v>
       </c>
       <c r="D394">
-        <v>0.1249463492817906</v>
+        <v>0.124946349281791</v>
       </c>
       <c r="E394">
-        <v>0.1116261625563276</v>
+        <v>0.111626162556328</v>
       </c>
       <c r="F394">
-        <v>0.13826653600725361</v>
+        <v>0.138266536007254</v>
       </c>
       <c r="G394">
-        <v>0.1045748816396269</v>
+        <v>0.104574881639627</v>
       </c>
       <c r="H394">
-        <v>0.14531781692395421</v>
-      </c>
-    </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.145317816923954</v>
+      </c>
+    </row>
+    <row r="395" spans="1:8">
       <c r="A395" s="2">
         <v>48488</v>
       </c>
       <c r="D395">
-        <v>0.1333660206896633</v>
+        <v>0.133366020689663</v>
       </c>
       <c r="E395">
-        <v>0.1200299204503131</v>
+        <v>0.120029920450313</v>
       </c>
       <c r="F395">
-        <v>0.1467021209290135</v>
+        <v>0.146702120929013</v>
       </c>
       <c r="G395">
-        <v>0.1129702154282224</v>
+        <v>0.112970215428222</v>
       </c>
       <c r="H395">
-        <v>0.15376182595110419</v>
-      </c>
-    </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.153761825951104</v>
+      </c>
+    </row>
+    <row r="396" spans="1:8">
       <c r="A396" s="2">
         <v>48519</v>
       </c>
       <c r="D396">
-        <v>0.12972768921484801</v>
+        <v>0.129727689214848</v>
       </c>
       <c r="E396">
-        <v>0.11637760081762739</v>
+        <v>0.116377600817627</v>
       </c>
       <c r="F396">
-        <v>0.14307777761206861</v>
+        <v>0.143077777612069</v>
       </c>
       <c r="G396">
-        <v>0.1093104909120553</v>
+        <v>0.109310490912055</v>
       </c>
       <c r="H396">
-        <v>0.15014488751764049</v>
-      </c>
-    </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.15014488751764</v>
+      </c>
+    </row>
+    <row r="397" spans="1:8">
       <c r="A397" s="2">
         <v>48549</v>
       </c>
       <c r="D397">
-        <v>0.1265001660083622</v>
+        <v>0.126500166008362</v>
       </c>
       <c r="E397">
-        <v>0.11313778035641819</v>
+        <v>0.113137780356418</v>
       </c>
       <c r="F397">
-        <v>0.13986255166030609</v>
+        <v>0.139862551660306</v>
       </c>
       <c r="G397">
-        <v>0.1060641606774214</v>
+        <v>0.106064160677421</v>
       </c>
       <c r="H397">
-        <v>0.14693617133930301</v>
-      </c>
-    </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.146936171339303</v>
+      </c>
+    </row>
+    <row r="398" spans="1:8">
       <c r="A398" s="2">
         <v>48580</v>
       </c>
       <c r="D398">
-        <v>0.11612555526841881</v>
+        <v>0.116125555268419</v>
       </c>
       <c r="E398">
-        <v>0.1026961524669399</v>
+        <v>0.10269615246694</v>
       </c>
       <c r="F398">
-        <v>0.1295549580698977</v>
+        <v>0.129554958069898</v>
       </c>
       <c r="G398">
-        <v>9.5587056051967378E-2</v>
+        <v>0.0955870560519674</v>
       </c>
       <c r="H398">
-        <v>0.13666405448487021</v>
-      </c>
-    </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.13666405448487</v>
+      </c>
+    </row>
+    <row r="399" spans="1:8">
       <c r="A399" s="2">
         <v>48611</v>
       </c>
       <c r="D399">
-        <v>0.1168959829552302</v>
+        <v>0.11689598295523</v>
       </c>
       <c r="E399">
-        <v>0.10342314955613249</v>
+        <v>0.103423149556132</v>
       </c>
       <c r="F399">
-        <v>0.13036881635432801</v>
+        <v>0.130368816354328</v>
       </c>
       <c r="G399">
-        <v>9.629106237154815E-2</v>
+        <v>0.0962910623715481</v>
       </c>
       <c r="H399">
-        <v>0.13750090353891231</v>
-      </c>
-    </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.137500903538912</v>
+      </c>
+    </row>
+    <row r="400" spans="1:8">
       <c r="A400" s="2">
         <v>48639</v>
       </c>
       <c r="D400">
-        <v>0.13126103346924439</v>
+        <v>0.131261033469244</v>
       </c>
       <c r="E400">
-        <v>0.11775009514097701</v>
+        <v>0.117750095140977</v>
       </c>
       <c r="F400">
-        <v>0.14477197179751181</v>
+        <v>0.144771971797512</v>
       </c>
       <c r="G400">
-        <v>0.1105978364253606</v>
+        <v>0.110597836425361</v>
       </c>
       <c r="H400">
-        <v>0.1519242305131282</v>
-      </c>
-    </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.151924230513128</v>
+      </c>
+    </row>
+    <row r="401" spans="1:8">
       <c r="A401" s="2">
         <v>48670</v>
       </c>
       <c r="D401">
-        <v>0.12439595398352619</v>
+        <v>0.124395953983526</v>
       </c>
       <c r="E401">
-        <v>0.11085157075241681</v>
+        <v>0.110851570752417</v>
       </c>
       <c r="F401">
-        <v>0.13794033721463561</v>
+        <v>0.137940337214636</v>
       </c>
       <c r="G401">
-        <v>0.1036816073746939</v>
+        <v>0.103681607374694</v>
       </c>
       <c r="H401">
-        <v>0.14511030059235849</v>
-      </c>
-    </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.145110300592358</v>
+      </c>
+    </row>
+    <row r="402" spans="1:8">
       <c r="A402" s="2">
         <v>48700</v>
       </c>
@@ -5784,179 +6359,179 @@
         <v>0.132291141796643</v>
       </c>
       <c r="E402">
-        <v>0.1187173941960934</v>
+        <v>0.118717394196093</v>
       </c>
       <c r="F402">
-        <v>0.14586488939719261</v>
+        <v>0.145864889397193</v>
       </c>
       <c r="G402">
-        <v>0.11153188626016471</v>
+        <v>0.111531886260165</v>
       </c>
       <c r="H402">
-        <v>0.15305039733312131</v>
-      </c>
-    </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.153050397333121</v>
+      </c>
+    </row>
+    <row r="403" spans="1:8">
       <c r="A403" s="2">
         <v>48731</v>
       </c>
       <c r="D403">
-        <v>0.13145236133794311</v>
+        <v>0.131452361337943</v>
       </c>
       <c r="E403">
         <v>0.117852824722208</v>
       </c>
       <c r="F403">
-        <v>0.14505189795367829</v>
+        <v>0.145051897953678</v>
       </c>
       <c r="G403">
-        <v>0.1106536649062879</v>
+        <v>0.110653664906288</v>
       </c>
       <c r="H403">
-        <v>0.15225105776959841</v>
-      </c>
-    </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.152251057769598</v>
+      </c>
+    </row>
+    <row r="404" spans="1:8">
       <c r="A404" s="2">
         <v>48761</v>
       </c>
       <c r="D404">
-        <v>0.1354154881702769</v>
+        <v>0.135415488170277</v>
       </c>
       <c r="E404">
-        <v>0.12179329697860131</v>
+        <v>0.121793296978601</v>
       </c>
       <c r="F404">
-        <v>0.14903767936195261</v>
+        <v>0.149037679361953</v>
       </c>
       <c r="G404">
-        <v>0.1145821445545972</v>
+        <v>0.114582144554597</v>
       </c>
       <c r="H404">
-        <v>0.15624883178595669</v>
-      </c>
-    </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.156248831785957</v>
+      </c>
+    </row>
+    <row r="405" spans="1:8">
       <c r="A405" s="2">
         <v>48792</v>
       </c>
       <c r="D405">
-        <v>0.11485532390084779</v>
+        <v>0.114855323900848</v>
       </c>
       <c r="E405">
-        <v>0.1012132273518369</v>
+        <v>0.101213227351837</v>
       </c>
       <c r="F405">
-        <v>0.12849742044985879</v>
+        <v>0.128497420449859</v>
       </c>
       <c r="G405">
-        <v>9.3991537668167313E-2</v>
+        <v>0.0939915376681673</v>
       </c>
       <c r="H405">
-        <v>0.1357191101335283</v>
-      </c>
-    </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.135719110133528</v>
+      </c>
+    </row>
+    <row r="406" spans="1:8">
       <c r="A406" s="2">
         <v>48823</v>
       </c>
       <c r="D406">
-        <v>0.1276105111311111</v>
+        <v>0.127610511131111</v>
       </c>
       <c r="E406">
-        <v>0.1139509215817987</v>
+        <v>0.113950921581799</v>
       </c>
       <c r="F406">
-        <v>0.14127010068042339</v>
+        <v>0.141270100680423</v>
       </c>
       <c r="G406">
-        <v>0.10671997166313819</v>
+        <v>0.106719971663138</v>
       </c>
       <c r="H406">
         <v>0.148501050599084</v>
       </c>
     </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:8">
       <c r="A407" s="2">
         <v>48853</v>
       </c>
       <c r="D407">
-        <v>0.13602867086840351</v>
+        <v>0.136028670868404</v>
       </c>
       <c r="E407">
-        <v>0.12235370587387689</v>
+        <v>0.122353705873877</v>
       </c>
       <c r="F407">
-        <v>0.14970363586293009</v>
+        <v>0.14970363586293</v>
       </c>
       <c r="G407">
-        <v>0.1151146166861761</v>
+        <v>0.115114616686176</v>
       </c>
       <c r="H407">
-        <v>0.15694272505063089</v>
-      </c>
-    </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.156942725050631</v>
+      </c>
+    </row>
+    <row r="408" spans="1:8">
       <c r="A408" s="2">
         <v>48884</v>
       </c>
       <c r="D408">
-        <v>0.13238901966967631</v>
+        <v>0.132389019669676</v>
       </c>
       <c r="E408">
-        <v>0.11870053861707031</v>
+        <v>0.11870053861707</v>
       </c>
       <c r="F408">
-        <v>0.14607750072228221</v>
+        <v>0.146077500722282</v>
       </c>
       <c r="G408">
-        <v>0.1114542944604214</v>
+        <v>0.111454294460421</v>
       </c>
       <c r="H408">
-        <v>0.15332374487893111</v>
-      </c>
-    </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.153323744878931</v>
+      </c>
+    </row>
+    <row r="409" spans="1:8">
       <c r="A409" s="2">
         <v>48914</v>
       </c>
       <c r="D409">
-        <v>0.12916034439322799</v>
+        <v>0.129160344393228</v>
       </c>
       <c r="E409">
-        <v>0.1154599804507135</v>
+        <v>0.115459980450713</v>
       </c>
       <c r="F409">
-        <v>0.14286070833574249</v>
+        <v>0.142860708335742</v>
       </c>
       <c r="G409">
-        <v>0.10820744587212271</v>
+        <v>0.108207445872123</v>
       </c>
       <c r="H409">
-        <v>0.15011324291433331</v>
-      </c>
-    </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.150113242914333</v>
+      </c>
+    </row>
+    <row r="410" spans="1:8">
       <c r="A410" s="2">
         <v>48945</v>
       </c>
       <c r="D410">
-        <v>0.1187847716340885</v>
+        <v>0.118784771634089</v>
       </c>
       <c r="E410">
-        <v>0.10501927767263911</v>
+        <v>0.105019277672639</v>
       </c>
       <c r="F410">
-        <v>0.13255026559553779</v>
+        <v>0.132550265595538</v>
       </c>
       <c r="G410">
-        <v>9.7732265344668043E-2</v>
+        <v>0.097732265344668</v>
       </c>
       <c r="H410">
-        <v>0.13983727792350889</v>
-      </c>
-    </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.139837277923509</v>
+      </c>
+    </row>
+    <row r="411" spans="1:8">
       <c r="A411" s="2">
         <v>48976</v>
       </c>
@@ -5964,460 +6539,461 @@
         <v>0.119554217173425</v>
       </c>
       <c r="E411">
-        <v>0.1057465320939542</v>
+        <v>0.105746532093954</v>
       </c>
       <c r="F411">
-        <v>0.13336190225289579</v>
+        <v>0.133361902252896</v>
       </c>
       <c r="G411">
-        <v>9.8437185137235803E-2</v>
+        <v>0.0984371851372358</v>
       </c>
       <c r="H411">
-        <v>0.14067124920961421</v>
-      </c>
-    </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.140671249209614</v>
+      </c>
+    </row>
+    <row r="412" spans="1:8">
       <c r="A412" s="2">
         <v>49004</v>
       </c>
       <c r="D412">
-        <v>0.13391828420669649</v>
+        <v>0.133918284206696</v>
       </c>
       <c r="E412">
-        <v>0.1200735758583007</v>
+        <v>0.120073575858301</v>
       </c>
       <c r="F412">
-        <v>0.1477629925550922</v>
+        <v>0.147762992555092</v>
       </c>
       <c r="G412">
-        <v>0.1127446299668957</v>
+        <v>0.112744629966896</v>
       </c>
       <c r="H412">
-        <v>0.15509193844649721</v>
-      </c>
-    </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.155091938446497</v>
+      </c>
+    </row>
+    <row r="413" spans="1:8">
       <c r="A413" s="2">
         <v>49035</v>
       </c>
       <c r="D413">
-        <v>0.1270522044485371</v>
+        <v>0.127052204448537</v>
       </c>
       <c r="E413">
-        <v>0.1131749961237537</v>
+        <v>0.113174996123754</v>
       </c>
       <c r="F413">
-        <v>0.14092941277332049</v>
+        <v>0.14092941277332</v>
       </c>
       <c r="G413">
-        <v>0.1058288457840915</v>
+        <v>0.105828845784092</v>
       </c>
       <c r="H413">
-        <v>0.14827556311298271</v>
-      </c>
-    </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.148275563112983</v>
+      </c>
+    </row>
+    <row r="414" spans="1:8">
       <c r="A414" s="2">
         <v>49065</v>
       </c>
       <c r="D414">
-        <v>0.1349463922267963</v>
+        <v>0.134946392226796</v>
       </c>
       <c r="E414">
-        <v>0.1210406457636255</v>
+        <v>0.121040645763625</v>
       </c>
       <c r="F414">
-        <v>0.14885213868996719</v>
+        <v>0.148852138689967</v>
       </c>
       <c r="G414">
-        <v>0.1136793882460567</v>
+        <v>0.113679388246057</v>
       </c>
       <c r="H414">
-        <v>0.15621339620753599</v>
-      </c>
-    </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.156213396207536</v>
+      </c>
+    </row>
+    <row r="415" spans="1:8">
       <c r="A415" s="2">
         <v>49096</v>
       </c>
       <c r="D415">
-        <v>0.1341065991887021</v>
+        <v>0.134106599188702</v>
       </c>
       <c r="E415">
-        <v>0.1201757867300922</v>
+        <v>0.120175786730092</v>
       </c>
       <c r="F415">
-        <v>0.14803741164731199</v>
+        <v>0.148037411647312</v>
       </c>
       <c r="G415">
-        <v>0.1128012600760661</v>
+        <v>0.112801260076066</v>
       </c>
       <c r="H415">
-        <v>0.15541193830133809</v>
-      </c>
-    </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.155411938301338</v>
+      </c>
+    </row>
+    <row r="416" spans="1:8">
       <c r="A416" s="2">
         <v>49126</v>
       </c>
       <c r="D416">
-        <v>0.13806871471201229</v>
+        <v>0.138068714712012</v>
       </c>
       <c r="E416">
-        <v>0.12411588081715411</v>
+        <v>0.124115880817154</v>
       </c>
       <c r="F416">
-        <v>0.15202154860687059</v>
+        <v>0.152021548606871</v>
       </c>
       <c r="G416">
-        <v>0.1167296967189512</v>
+        <v>0.116729696718951</v>
       </c>
       <c r="H416">
-        <v>0.15940773270507341</v>
-      </c>
-    </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.159407732705073</v>
+      </c>
+    </row>
+    <row r="417" spans="1:8">
       <c r="A417" s="2">
         <v>49157</v>
       </c>
       <c r="D417">
-        <v>0.11750752950903259</v>
+        <v>0.117507529509033</v>
       </c>
       <c r="E417">
-        <v>0.1035353450243806</v>
+        <v>0.103535345024381</v>
       </c>
       <c r="F417">
-        <v>0.13147971399368449</v>
+        <v>0.131479713993684</v>
       </c>
       <c r="G417">
-        <v>9.6138917342709157E-2</v>
+        <v>0.0961389173427092</v>
       </c>
       <c r="H417">
         <v>0.138876141675356</v>
       </c>
     </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:8">
       <c r="A418" s="2">
         <v>49188</v>
       </c>
       <c r="D418">
-        <v>0.13026169760897699</v>
+        <v>0.130261697608977</v>
       </c>
       <c r="E418">
-        <v>0.11627250647631041</v>
+        <v>0.11627250647631</v>
       </c>
       <c r="F418">
-        <v>0.1442508887416436</v>
+        <v>0.144250888741644</v>
       </c>
       <c r="G418">
-        <v>0.1088670760189967</v>
+        <v>0.108867076018997</v>
       </c>
       <c r="H418">
-        <v>0.15165631919895731</v>
-      </c>
-    </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.151656319198957</v>
+      </c>
+    </row>
+    <row r="419" spans="1:8">
       <c r="A419" s="2">
         <v>49218</v>
       </c>
       <c r="D419">
-        <v>0.13867883051717569</v>
+        <v>0.138678830517176</v>
       </c>
       <c r="E419">
-        <v>0.1246746905087532</v>
+        <v>0.124674690508753</v>
       </c>
       <c r="F419">
-        <v>0.15268297052559809</v>
+        <v>0.152682970525598</v>
       </c>
       <c r="G419">
-        <v>0.1172613465946301</v>
+        <v>0.11726134659463</v>
       </c>
       <c r="H419">
-        <v>0.16009631443972119</v>
-      </c>
-    </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.160096314439721</v>
+      </c>
+    </row>
+    <row r="420" spans="1:8">
       <c r="A420" s="2">
         <v>49249</v>
       </c>
       <c r="D420">
-        <v>0.1350381539467462</v>
+        <v>0.135038153946746</v>
       </c>
       <c r="E420">
-        <v>0.12102087216436951</v>
+        <v>0.12102087216437</v>
       </c>
       <c r="F420">
-        <v>0.14905543572912289</v>
+        <v>0.149055435729123</v>
       </c>
       <c r="G420">
-        <v>0.1136005714153458</v>
+        <v>0.113600571415346</v>
       </c>
       <c r="H420">
-        <v>0.15647573647814661</v>
-      </c>
-    </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.156475736478147</v>
+      </c>
+    </row>
+    <row r="421" spans="1:8">
       <c r="A421" s="2">
         <v>49279</v>
       </c>
       <c r="D421">
-        <v>0.13180844679718601</v>
+        <v>0.131808446797186</v>
       </c>
       <c r="E421">
-        <v>0.1177796106456761</v>
+        <v>0.117779610645676</v>
       </c>
       <c r="F421">
-        <v>0.1458372829486958</v>
+        <v>0.145837282948696</v>
       </c>
       <c r="G421">
-        <v>0.11035319338310411</v>
+        <v>0.110353193383104</v>
       </c>
       <c r="H421">
-        <v>0.15326370021126789</v>
-      </c>
-    </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.153263700211268</v>
+      </c>
+    </row>
+    <row r="422" spans="1:8">
       <c r="A422" s="2">
         <v>49310</v>
       </c>
       <c r="D422">
-        <v>0.1214318407647005</v>
+        <v>0.1214318407647</v>
       </c>
       <c r="E422">
-        <v>0.1073395021642673</v>
+        <v>0.107339502164267</v>
       </c>
       <c r="F422">
-        <v>0.13552417936513361</v>
+        <v>0.135524179365134</v>
       </c>
       <c r="G422">
-        <v>9.9879468735834753E-2</v>
+        <v>0.0998794687358348</v>
       </c>
       <c r="H422">
-        <v>0.14298421279356621</v>
-      </c>
-    </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.142984212793566</v>
+      </c>
+    </row>
+    <row r="423" spans="1:8">
       <c r="A423" s="2">
         <v>49341</v>
       </c>
       <c r="D423">
-        <v>0.12220040003126741</v>
+        <v>0.122200400031267</v>
       </c>
       <c r="E423">
-        <v>0.1080669286117197</v>
+        <v>0.10806692861172</v>
       </c>
       <c r="F423">
-        <v>0.1363338714508151</v>
+        <v>0.136333871450815</v>
       </c>
       <c r="G423">
-        <v>0.1005851207841401</v>
+        <v>0.10058512078414</v>
       </c>
       <c r="H423">
-        <v>0.14381567927839459</v>
-      </c>
-    </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.143815679278395</v>
+      </c>
+    </row>
+    <row r="424" spans="1:8">
       <c r="A424" s="2">
         <v>49369</v>
       </c>
       <c r="D424">
-        <v>0.13656373207405009</v>
+        <v>0.13656373207405</v>
       </c>
       <c r="E424">
-        <v>0.1223941611386771</v>
+        <v>0.122394161138677</v>
       </c>
       <c r="F424">
-        <v>0.15073330300942309</v>
+        <v>0.150733303009423</v>
       </c>
       <c r="G424">
-        <v>0.1148932433817634</v>
+        <v>0.114893243381763</v>
       </c>
       <c r="H424">
-        <v>0.15823422076633689</v>
-      </c>
-    </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.158234220766337</v>
+      </c>
+    </row>
+    <row r="425" spans="1:8">
       <c r="A425" s="2">
         <v>49400</v>
       </c>
       <c r="D425">
-        <v>0.1296970603826349</v>
+        <v>0.129697060382635</v>
       </c>
       <c r="E425">
-        <v>0.11549579660508209</v>
+        <v>0.115495796605082</v>
       </c>
       <c r="F425">
-        <v>0.1438983241601878</v>
+        <v>0.143898324160188</v>
       </c>
       <c r="G425">
-        <v>0.1079781016709512</v>
+        <v>0.107978101670951</v>
       </c>
       <c r="H425">
-        <v>0.1514160190943187</v>
-      </c>
-    </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.151416019094319</v>
+      </c>
+    </row>
+    <row r="426" spans="1:8">
       <c r="A426" s="2">
         <v>49430</v>
       </c>
       <c r="D426">
-        <v>0.1375908024331518</v>
+        <v>0.137590802433152</v>
       </c>
       <c r="E426">
-        <v>0.12336170638049419</v>
+        <v>0.123361706380494</v>
       </c>
       <c r="F426">
-        <v>0.1518198984858094</v>
+        <v>0.151819898485809</v>
       </c>
       <c r="G426">
-        <v>0.11582927792990751</v>
+        <v>0.115829277929908</v>
       </c>
       <c r="H426">
-        <v>0.15935232693639609</v>
-      </c>
-    </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.159352326936396</v>
+      </c>
+    </row>
+    <row r="427" spans="1:8">
       <c r="A427" s="2">
         <v>49461</v>
       </c>
       <c r="D427">
-        <v>0.13675070286285601</v>
+        <v>0.136750702862856</v>
       </c>
       <c r="E427">
-        <v>0.12249715859049271</v>
+        <v>0.122497158590493</v>
       </c>
       <c r="F427">
-        <v>0.15100424713521929</v>
+        <v>0.151004247135219</v>
       </c>
       <c r="G427">
-        <v>0.1149517880341674</v>
+        <v>0.114951788034167</v>
       </c>
       <c r="H427">
-        <v>0.1585496176915446</v>
-      </c>
-    </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.158549617691545</v>
+      </c>
+    </row>
+    <row r="428" spans="1:8">
       <c r="A428" s="2">
         <v>49491</v>
       </c>
       <c r="D428">
-        <v>0.14071265403646319</v>
+        <v>0.140712654036463</v>
       </c>
       <c r="E428">
-        <v>0.12643762937296149</v>
+        <v>0.126437629372961</v>
       </c>
       <c r="F428">
-        <v>0.15498767869996491</v>
+        <v>0.154987678699965</v>
       </c>
       <c r="G428">
-        <v>0.1188808877844398</v>
+        <v>0.11888088778444</v>
       </c>
       <c r="H428">
-        <v>0.16254442028848651</v>
-      </c>
-    </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.162544420288487</v>
+      </c>
+    </row>
+    <row r="429" spans="1:8">
       <c r="A429" s="2">
         <v>49522</v>
       </c>
       <c r="D429">
-        <v>0.12015144040335921</v>
+        <v>0.120151440403359</v>
       </c>
       <c r="E429">
-        <v>0.10585753927303949</v>
+        <v>0.105857539273039</v>
       </c>
       <c r="F429">
-        <v>0.13444534153367879</v>
+        <v>0.134445341533679</v>
       </c>
       <c r="G429">
-        <v>9.8290805086591743E-2</v>
+        <v>0.0982908050865917</v>
       </c>
       <c r="H429">
-        <v>0.14201207572012661</v>
-      </c>
-    </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.142012075720127</v>
+      </c>
+    </row>
+    <row r="430" spans="1:8">
       <c r="A430" s="2">
         <v>49553</v>
       </c>
       <c r="D430">
-        <v>0.13290571846023039</v>
+        <v>0.13290571846023</v>
       </c>
       <c r="E430">
-        <v>0.1185952263729264</v>
+        <v>0.118595226372926</v>
       </c>
       <c r="F430">
-        <v>0.14721621054753439</v>
+        <v>0.147216210547534</v>
       </c>
       <c r="G430">
-        <v>0.1110197094643753</v>
+        <v>0.111019709464375</v>
       </c>
       <c r="H430">
-        <v>0.15479172745608549</v>
-      </c>
-    </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.154791727456085</v>
+      </c>
+    </row>
+    <row r="431" spans="1:8">
       <c r="A431" s="2">
         <v>49583</v>
       </c>
       <c r="D431">
-        <v>0.14132309457643091</v>
+        <v>0.141323094576431</v>
       </c>
       <c r="E431">
-        <v>0.12699801823603821</v>
+        <v>0.126998018236038</v>
       </c>
       <c r="F431">
-        <v>0.15564817091682359</v>
+        <v>0.155648170916824</v>
       </c>
       <c r="G431">
-        <v>0.11941478089025841</v>
+        <v>0.119414780890258</v>
       </c>
       <c r="H431">
-        <v>0.16323140826260341</v>
-      </c>
-    </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.163231408262603</v>
+      </c>
+    </row>
+    <row r="432" spans="1:8">
       <c r="A432" s="2">
         <v>49614</v>
       </c>
       <c r="D432">
-        <v>0.1376827969043295</v>
+        <v>0.137682796904329</v>
       </c>
       <c r="E432">
-        <v>0.1233448987418415</v>
+        <v>0.123344898741841</v>
       </c>
       <c r="F432">
-        <v>0.1520206950668174</v>
+        <v>0.152020695066817</v>
       </c>
       <c r="G432">
-        <v>0.11575487393344421</v>
+        <v>0.115754873933444</v>
       </c>
       <c r="H432">
-        <v>0.15961071987521469</v>
-      </c>
-    </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.159610719875215</v>
+      </c>
+    </row>
+    <row r="433" spans="1:8">
       <c r="A433" s="2">
         <v>49644</v>
       </c>
       <c r="D433">
-        <v>0.13445359998257431</v>
+        <v>0.134453599982574</v>
       </c>
       <c r="E433">
-        <v>0.1201044282987383</v>
+        <v>0.120104428298738</v>
       </c>
       <c r="F433">
-        <v>0.14880277166641029</v>
+        <v>0.14880277166641</v>
       </c>
       <c r="G433">
-        <v>0.1125084356486295</v>
+        <v>0.11250843564863</v>
       </c>
       <c r="H433">
-        <v>0.15639876431651911</v>
+        <v>0.156398764316519</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>